--- a/BOM Automation/100 33 400 BOM v0.xlsx
+++ b/BOM Automation/100 33 400 BOM v0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashanth\LTL\BOM Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B62C82D-595C-4BDA-9FEF-8E0E605AC293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC307E20-F7F2-4BB2-BE9D-6FD744E7ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6350,22 +6350,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6377,11 +6371,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -6401,435 +6401,540 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="63" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="63" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6850,111 +6955,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="63" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="63" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12913,8 +12913,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O470"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H205" sqref="H205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21486,7 +21486,7 @@
       <formula>$B$38&lt;&gt;$B$40</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="414" yWindow="396" count="13">
+  <dataValidations disablePrompts="1" xWindow="414" yWindow="396" count="13">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="WIDTH OF STRIP" sqref="A167" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="MEAN TURN LENGTH_x000a_" sqref="A168:A169" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="NO OF LAYERS IN LV WDG (Cu WIRE)_x000a__x000a__x000a_" sqref="B169" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
@@ -21523,14 +21523,14 @@
   <dimension ref="A1:O170"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="80" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
@@ -21548,44 +21548,44 @@
       <c r="A1" s="50"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="403" t="s">
+      <c r="A2" s="401" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="404"/>
-      <c r="C2" s="404"/>
-      <c r="D2" s="404"/>
-      <c r="E2" s="404"/>
-      <c r="F2" s="404"/>
-      <c r="G2" s="404"/>
-      <c r="H2" s="404"/>
-      <c r="I2" s="404"/>
-      <c r="J2" s="404"/>
+      <c r="B2" s="402"/>
+      <c r="C2" s="402"/>
+      <c r="D2" s="402"/>
+      <c r="E2" s="402"/>
+      <c r="F2" s="402"/>
+      <c r="G2" s="402"/>
+      <c r="H2" s="402"/>
+      <c r="I2" s="402"/>
+      <c r="J2" s="402"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="91"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="405" t="s">
+      <c r="A4" s="403" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="405"/>
-      <c r="C4" s="406" t="str">
+      <c r="B4" s="403"/>
+      <c r="C4" s="404" t="str">
         <f ca="1">Techspecs!F12&amp;Q!A46&amp;" "&amp;Q!B47&amp;"/"&amp;Q!B48&amp;"V"</f>
         <v>100kVA 33000/400V</v>
       </c>
-      <c r="D4" s="406"/>
-      <c r="E4" s="406"/>
-      <c r="F4" s="406"/>
-      <c r="G4" s="406"/>
-      <c r="H4" s="406"/>
-      <c r="I4" s="406"/>
-      <c r="J4" s="406"/>
+      <c r="D4" s="404"/>
+      <c r="E4" s="404"/>
+      <c r="F4" s="404"/>
+      <c r="G4" s="404"/>
+      <c r="H4" s="404"/>
+      <c r="I4" s="404"/>
+      <c r="J4" s="404"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="405" t="s">
+      <c r="A5" s="403" t="s">
         <v>641</v>
       </c>
-      <c r="B5" s="405"/>
+      <c r="B5" s="403"/>
       <c r="C5" s="259"/>
       <c r="D5" s="259"/>
       <c r="E5" s="259"/>
@@ -21596,36 +21596,36 @@
       <c r="J5" s="259"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="405" t="s">
+      <c r="A6" s="403" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="405"/>
-      <c r="C6" s="406" t="s">
+      <c r="B6" s="403"/>
+      <c r="C6" s="404" t="s">
         <v>1158</v>
       </c>
-      <c r="D6" s="406"/>
-      <c r="E6" s="406"/>
-      <c r="F6" s="406"/>
-      <c r="G6" s="406"/>
-      <c r="H6" s="406"/>
-      <c r="I6" s="406"/>
-      <c r="J6" s="406"/>
+      <c r="D6" s="404"/>
+      <c r="E6" s="404"/>
+      <c r="F6" s="404"/>
+      <c r="G6" s="404"/>
+      <c r="H6" s="404"/>
+      <c r="I6" s="404"/>
+      <c r="J6" s="404"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="405" t="s">
+      <c r="A7" s="403" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="405"/>
-      <c r="C7" s="406">
+      <c r="B7" s="403"/>
+      <c r="C7" s="404">
         <v>73</v>
       </c>
-      <c r="D7" s="406"/>
-      <c r="E7" s="406"/>
-      <c r="F7" s="406"/>
-      <c r="G7" s="406"/>
-      <c r="H7" s="406"/>
-      <c r="I7" s="406"/>
-      <c r="J7" s="406"/>
+      <c r="D7" s="404"/>
+      <c r="E7" s="404"/>
+      <c r="F7" s="404"/>
+      <c r="G7" s="404"/>
+      <c r="H7" s="404"/>
+      <c r="I7" s="404"/>
+      <c r="J7" s="404"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="92"/>
@@ -22554,10 +22554,10 @@
       <c r="A37" s="107">
         <v>24</v>
       </c>
-      <c r="B37" s="399" t="s">
+      <c r="B37" s="397" t="s">
         <v>985</v>
       </c>
-      <c r="C37" s="400"/>
+      <c r="C37" s="398"/>
       <c r="D37" s="22" t="s">
         <v>46</v>
       </c>
@@ -23008,10 +23008,10 @@
       <c r="A50" s="277">
         <v>30</v>
       </c>
-      <c r="B50" s="401" t="s">
+      <c r="B50" s="405" t="s">
         <v>686</v>
       </c>
-      <c r="C50" s="402"/>
+      <c r="C50" s="406"/>
       <c r="D50" s="272" t="s">
         <v>45</v>
       </c>
@@ -23084,10 +23084,10 @@
       <c r="A52" s="277">
         <v>32</v>
       </c>
-      <c r="B52" s="399" t="s">
+      <c r="B52" s="397" t="s">
         <v>845</v>
       </c>
-      <c r="C52" s="400"/>
+      <c r="C52" s="398"/>
       <c r="D52" s="22" t="s">
         <v>46</v>
       </c>
@@ -23163,11 +23163,11 @@
       <c r="A56" s="105">
         <v>33</v>
       </c>
-      <c r="B56" s="399" t="str">
+      <c r="B56" s="397" t="str">
         <f>IF(L56=0,Q!B311,L56)</f>
         <v>30 NF 250 CD = 900 mm</v>
       </c>
-      <c r="C56" s="400"/>
+      <c r="C56" s="398"/>
       <c r="D56" s="22" t="s">
         <v>46</v>
       </c>
@@ -23200,10 +23200,10 @@
       <c r="A57" s="105">
         <v>34</v>
       </c>
-      <c r="B57" s="399" t="s">
+      <c r="B57" s="397" t="s">
         <v>836</v>
       </c>
-      <c r="C57" s="400"/>
+      <c r="C57" s="398"/>
       <c r="D57" s="22" t="s">
         <v>46</v>
       </c>
@@ -23252,11 +23252,11 @@
       <c r="A59" s="105">
         <v>35</v>
       </c>
-      <c r="B59" s="399" t="str">
+      <c r="B59" s="397" t="str">
         <f>IF(L59=0,Q!B330,L59)</f>
         <v>EN 250</v>
       </c>
-      <c r="C59" s="400"/>
+      <c r="C59" s="398"/>
       <c r="D59" s="22" t="s">
         <v>46</v>
       </c>
@@ -23289,10 +23289,10 @@
       <c r="A60" s="105">
         <v>36</v>
       </c>
-      <c r="B60" s="399" t="s">
+      <c r="B60" s="397" t="s">
         <v>849</v>
       </c>
-      <c r="C60" s="400"/>
+      <c r="C60" s="398"/>
       <c r="D60" s="22" t="s">
         <v>46</v>
       </c>
@@ -23341,11 +23341,11 @@
       <c r="A62" s="105">
         <v>37</v>
       </c>
-      <c r="B62" s="399" t="str">
+      <c r="B62" s="397" t="str">
         <f ca="1">IF(L62=0,Q!B348,L62)</f>
         <v>HR 7A3.335 (30kV 30A 100mm 5 Pos)</v>
       </c>
-      <c r="C62" s="400"/>
+      <c r="C62" s="398"/>
       <c r="D62" s="22" t="s">
         <v>46</v>
       </c>
@@ -23376,8 +23376,8 @@
       <c r="A63" s="105">
         <v>38</v>
       </c>
-      <c r="B63" s="399"/>
-      <c r="C63" s="400"/>
+      <c r="B63" s="397"/>
+      <c r="C63" s="398"/>
       <c r="D63" s="22"/>
       <c r="E63" s="82"/>
       <c r="F63" s="377"/>
@@ -23413,11 +23413,11 @@
       <c r="A65" s="105">
         <v>39</v>
       </c>
-      <c r="B65" s="399" t="str">
+      <c r="B65" s="397" t="str">
         <f>Q!A364</f>
         <v>PRV T-10K1 1R"</v>
       </c>
-      <c r="C65" s="400"/>
+      <c r="C65" s="398"/>
       <c r="D65" s="22" t="s">
         <v>46</v>
       </c>
@@ -23445,11 +23445,11 @@
       <c r="A66" s="105">
         <v>40</v>
       </c>
-      <c r="B66" s="399" t="str">
+      <c r="B66" s="397" t="str">
         <f>Q!A365</f>
         <v>PRV T-50 0.4 BAR</v>
       </c>
-      <c r="C66" s="400"/>
+      <c r="C66" s="398"/>
       <c r="D66" s="22" t="s">
         <v>46</v>
       </c>
@@ -23473,11 +23473,11 @@
       <c r="A67" s="105">
         <v>41</v>
       </c>
-      <c r="B67" s="399" t="str">
+      <c r="B67" s="397" t="str">
         <f ca="1">Q!A366</f>
         <v>DRAIN VALVE NW 22</v>
       </c>
-      <c r="C67" s="400"/>
+      <c r="C67" s="398"/>
       <c r="D67" s="22" t="s">
         <v>46</v>
       </c>
@@ -23505,11 +23505,11 @@
       <c r="A68" s="105">
         <v>42</v>
       </c>
-      <c r="B68" s="399" t="str">
+      <c r="B68" s="397" t="str">
         <f>Q!A367</f>
         <v>AIR RELEASE PLUG</v>
       </c>
-      <c r="C68" s="400"/>
+      <c r="C68" s="398"/>
       <c r="D68" s="22" t="s">
         <v>46</v>
       </c>
@@ -23533,11 +23533,11 @@
       <c r="A69" s="105">
         <v>43</v>
       </c>
-      <c r="B69" s="399" t="str">
+      <c r="B69" s="397" t="str">
         <f>Q!A368</f>
         <v>ARES DIN25 DOUBLE FLANGE GATE VALVE</v>
       </c>
-      <c r="C69" s="400"/>
+      <c r="C69" s="398"/>
       <c r="D69" s="22" t="s">
         <v>46</v>
       </c>
@@ -23561,11 +23561,11 @@
       <c r="A70" s="105">
         <v>44</v>
       </c>
-      <c r="B70" s="399" t="str">
+      <c r="B70" s="397" t="str">
         <f>Q!A369</f>
         <v>SINGLE FLANGE BALL VALVE 1" NW25S-SS</v>
       </c>
-      <c r="C70" s="400"/>
+      <c r="C70" s="398"/>
       <c r="D70" s="22" t="s">
         <v>46</v>
       </c>
@@ -23589,11 +23589,11 @@
       <c r="A71" s="105">
         <v>45</v>
       </c>
-      <c r="B71" s="399" t="str">
+      <c r="B71" s="397" t="str">
         <f>Q!A370</f>
         <v>THROTTLE VALVE FOR RADIATOR NW80 FORMB</v>
       </c>
-      <c r="C71" s="400"/>
+      <c r="C71" s="398"/>
       <c r="D71" s="22" t="s">
         <v>46</v>
       </c>
@@ -23620,11 +23620,11 @@
       <c r="A72" s="105">
         <v>46</v>
       </c>
-      <c r="B72" s="399" t="str">
+      <c r="B72" s="397" t="str">
         <f>Q!A371</f>
         <v>BALL VALVE 1" PELGER</v>
       </c>
-      <c r="C72" s="400"/>
+      <c r="C72" s="398"/>
       <c r="D72" s="22" t="s">
         <v>46</v>
       </c>
@@ -23651,11 +23651,11 @@
       <c r="A73" s="105">
         <v>47</v>
       </c>
-      <c r="B73" s="399" t="str">
+      <c r="B73" s="397" t="str">
         <f>Q!A372</f>
         <v>GATE VALVE WITH SAMPLING</v>
       </c>
-      <c r="C73" s="400"/>
+      <c r="C73" s="398"/>
       <c r="D73" s="22" t="s">
         <v>46</v>
       </c>
@@ -23681,11 +23681,11 @@
       <c r="A74" s="105">
         <v>48</v>
       </c>
-      <c r="B74" s="399" t="str">
+      <c r="B74" s="397" t="str">
         <f>Q!A373</f>
         <v>GATE VALVE WITHOUT SAMPLING</v>
       </c>
-      <c r="C74" s="400"/>
+      <c r="C74" s="398"/>
       <c r="D74" s="22" t="s">
         <v>46</v>
       </c>
@@ -23712,11 +23712,11 @@
       <c r="A75" s="105">
         <v>49</v>
       </c>
-      <c r="B75" s="399" t="str">
+      <c r="B75" s="397" t="str">
         <f>Q!A374</f>
         <v>SAMPLING VALVE</v>
       </c>
-      <c r="C75" s="400"/>
+      <c r="C75" s="398"/>
       <c r="D75" s="22" t="s">
         <v>46</v>
       </c>
@@ -23740,11 +23740,11 @@
       <c r="A76" s="105">
         <v>50</v>
       </c>
-      <c r="B76" s="399" t="str">
+      <c r="B76" s="397" t="str">
         <f>Q!A375</f>
         <v>BALL VALVE 1" Threaded on both sides</v>
       </c>
-      <c r="C76" s="400"/>
+      <c r="C76" s="398"/>
       <c r="D76" s="22" t="s">
         <v>46</v>
       </c>
@@ -23772,8 +23772,8 @@
       <c r="A77" s="105">
         <v>51</v>
       </c>
-      <c r="B77" s="397"/>
-      <c r="C77" s="398"/>
+      <c r="B77" s="407"/>
+      <c r="C77" s="408"/>
       <c r="D77" s="22"/>
       <c r="E77" s="82"/>
       <c r="F77" s="377"/>
@@ -23816,11 +23816,11 @@
       <c r="A79" s="105">
         <v>52</v>
       </c>
-      <c r="B79" s="399" t="str">
+      <c r="B79" s="397" t="str">
         <f>Q!A377</f>
         <v>Magnetic- with 400mm boss</v>
       </c>
-      <c r="C79" s="400"/>
+      <c r="C79" s="398"/>
       <c r="D79" s="22" t="s">
         <v>46</v>
       </c>
@@ -23846,11 +23846,11 @@
       <c r="A80" s="105">
         <v>53</v>
       </c>
-      <c r="B80" s="399" t="str">
+      <c r="B80" s="397" t="str">
         <f>Q!A378</f>
         <v>Magnetic- with 200mm boss</v>
       </c>
-      <c r="C80" s="400"/>
+      <c r="C80" s="398"/>
       <c r="D80" s="22" t="s">
         <v>46</v>
       </c>
@@ -23876,11 +23876,11 @@
       <c r="A81" s="105">
         <v>54</v>
       </c>
-      <c r="B81" s="399" t="str">
+      <c r="B81" s="397" t="str">
         <f>Q!A379</f>
         <v>4 HOLES PRISMATIC</v>
       </c>
-      <c r="C81" s="400"/>
+      <c r="C81" s="398"/>
       <c r="D81" s="22" t="s">
         <v>46</v>
       </c>
@@ -23906,11 +23906,11 @@
       <c r="A82" s="105">
         <v>55</v>
       </c>
-      <c r="B82" s="399" t="str">
+      <c r="B82" s="397" t="str">
         <f>Q!A380</f>
         <v>6 HOLES PRISMATIC</v>
       </c>
-      <c r="C82" s="400"/>
+      <c r="C82" s="398"/>
       <c r="D82" s="22" t="s">
         <v>46</v>
       </c>
@@ -23938,11 +23938,11 @@
       <c r="A83" s="105">
         <v>56</v>
       </c>
-      <c r="B83" s="399" t="str">
+      <c r="B83" s="397" t="str">
         <f>Q!A381</f>
         <v>8 HOLES PRISMATIC</v>
       </c>
-      <c r="C83" s="400"/>
+      <c r="C83" s="398"/>
       <c r="D83" s="22" t="s">
         <v>46</v>
       </c>
@@ -23968,11 +23968,11 @@
       <c r="A84" s="105">
         <v>57</v>
       </c>
-      <c r="B84" s="399" t="str">
+      <c r="B84" s="397" t="str">
         <f>Q!A382</f>
         <v>FLOATING TYPE</v>
       </c>
-      <c r="C84" s="400"/>
+      <c r="C84" s="398"/>
       <c r="D84" s="22" t="s">
         <v>46</v>
       </c>
@@ -24000,11 +24000,11 @@
       <c r="A85" s="105">
         <v>58</v>
       </c>
-      <c r="B85" s="399" t="str">
+      <c r="B85" s="397" t="str">
         <f>Q!A383</f>
         <v>VIAT SO4 - Dial Type with Contacts</v>
       </c>
-      <c r="C85" s="400"/>
+      <c r="C85" s="398"/>
       <c r="D85" s="22" t="s">
         <v>46</v>
       </c>
@@ -24029,11 +24029,11 @@
       <c r="A86" s="105">
         <v>59</v>
       </c>
-      <c r="B86" s="399" t="str">
+      <c r="B86" s="397" t="str">
         <f>Q!A384</f>
         <v>VIAT SO6 - Dial Type with Contacts</v>
       </c>
-      <c r="C86" s="400"/>
+      <c r="C86" s="398"/>
       <c r="D86" s="22" t="s">
         <v>46</v>
       </c>
@@ -24056,8 +24056,8 @@
       <c r="A87" s="105">
         <v>60</v>
       </c>
-      <c r="B87" s="399"/>
-      <c r="C87" s="400"/>
+      <c r="B87" s="397"/>
+      <c r="C87" s="398"/>
       <c r="D87" s="22"/>
       <c r="E87" s="81"/>
       <c r="F87" s="376"/>
@@ -24097,11 +24097,11 @@
       <c r="A89" s="105">
         <v>61</v>
       </c>
-      <c r="B89" s="399" t="str">
+      <c r="B89" s="397" t="str">
         <f>Q!A387</f>
         <v>HV CABLE BOX</v>
       </c>
-      <c r="C89" s="400"/>
+      <c r="C89" s="398"/>
       <c r="D89" s="22" t="s">
         <v>46</v>
       </c>
@@ -24127,11 +24127,11 @@
       <c r="A90" s="105">
         <v>62</v>
       </c>
-      <c r="B90" s="399" t="str">
+      <c r="B90" s="397" t="str">
         <f>Q!A388</f>
         <v>LV CABLE BOX</v>
       </c>
-      <c r="C90" s="400"/>
+      <c r="C90" s="398"/>
       <c r="D90" s="22" t="s">
         <v>46</v>
       </c>
@@ -24159,11 +24159,11 @@
       <c r="A91" s="105">
         <v>63</v>
       </c>
-      <c r="B91" s="399" t="str">
+      <c r="B91" s="397" t="str">
         <f>Q!A389</f>
         <v>WTI BOX</v>
       </c>
-      <c r="C91" s="400"/>
+      <c r="C91" s="398"/>
       <c r="D91" s="22" t="s">
         <v>46</v>
       </c>
@@ -24189,11 +24189,11 @@
       <c r="A92" s="105">
         <v>64</v>
       </c>
-      <c r="B92" s="399" t="str">
+      <c r="B92" s="397" t="str">
         <f>Q!A390</f>
         <v>CONNECTOR BOX</v>
       </c>
-      <c r="C92" s="400"/>
+      <c r="C92" s="398"/>
       <c r="D92" s="22" t="s">
         <v>46</v>
       </c>
@@ -24221,10 +24221,10 @@
       <c r="A93" s="105">
         <v>65</v>
       </c>
-      <c r="B93" s="399" t="s">
+      <c r="B93" s="397" t="s">
         <v>994</v>
       </c>
-      <c r="C93" s="400"/>
+      <c r="C93" s="398"/>
       <c r="D93" s="22" t="s">
         <v>46</v>
       </c>
@@ -24252,8 +24252,8 @@
       <c r="A94" s="105">
         <v>66</v>
       </c>
-      <c r="B94" s="399"/>
-      <c r="C94" s="400"/>
+      <c r="B94" s="397"/>
+      <c r="C94" s="398"/>
       <c r="D94" s="22"/>
       <c r="E94" s="82"/>
       <c r="F94" s="377"/>
@@ -24296,11 +24296,11 @@
       <c r="A96" s="105">
         <v>67</v>
       </c>
-      <c r="B96" s="399" t="str">
+      <c r="B96" s="397" t="str">
         <f>Q!A393</f>
         <v>RATING PLATE</v>
       </c>
-      <c r="C96" s="400"/>
+      <c r="C96" s="398"/>
       <c r="D96" s="22" t="s">
         <v>46</v>
       </c>
@@ -24328,11 +24328,11 @@
       <c r="A97" s="313">
         <v>68</v>
       </c>
-      <c r="B97" s="399" t="str">
+      <c r="B97" s="397" t="str">
         <f>Q!A394</f>
         <v>PHASE MARKING PLATES</v>
       </c>
-      <c r="C97" s="400"/>
+      <c r="C97" s="398"/>
       <c r="D97" s="22" t="s">
         <v>46</v>
       </c>
@@ -24360,11 +24360,11 @@
       <c r="A98" s="313">
         <v>69</v>
       </c>
-      <c r="B98" s="399" t="str">
+      <c r="B98" s="397" t="str">
         <f>Q!A395</f>
         <v>S/A MOUNTING BRACKET A-2</v>
       </c>
-      <c r="C98" s="400"/>
+      <c r="C98" s="398"/>
       <c r="D98" s="22" t="s">
         <v>46</v>
       </c>
@@ -24392,11 +24392,11 @@
       <c r="A99" s="313">
         <v>70</v>
       </c>
-      <c r="B99" s="399" t="str">
+      <c r="B99" s="397" t="str">
         <f>Q!A396</f>
         <v>ISD UNIT</v>
       </c>
-      <c r="C99" s="400"/>
+      <c r="C99" s="398"/>
       <c r="D99" s="22" t="s">
         <v>46</v>
       </c>
@@ -24424,11 +24424,11 @@
       <c r="A100" s="313">
         <v>71</v>
       </c>
-      <c r="B100" s="399" t="str">
+      <c r="B100" s="397" t="str">
         <f>Q!A397</f>
         <v>BREATHER 1KG TYPE A</v>
       </c>
-      <c r="C100" s="400"/>
+      <c r="C100" s="398"/>
       <c r="D100" s="22" t="s">
         <v>46</v>
       </c>
@@ -24456,11 +24456,11 @@
       <c r="A101" s="313">
         <v>72</v>
       </c>
-      <c r="B101" s="399" t="str">
+      <c r="B101" s="397" t="str">
         <f>Q!A398</f>
         <v>BREATHER 1KG TYPE B</v>
       </c>
-      <c r="C101" s="400"/>
+      <c r="C101" s="398"/>
       <c r="D101" s="22" t="s">
         <v>46</v>
       </c>
@@ -24488,11 +24488,11 @@
       <c r="A102" s="313">
         <v>73</v>
       </c>
-      <c r="B102" s="399" t="str">
+      <c r="B102" s="397" t="str">
         <f>Q!A399</f>
         <v>BREATHER 1KG TYPE C</v>
       </c>
-      <c r="C102" s="400"/>
+      <c r="C102" s="398"/>
       <c r="D102" s="22" t="s">
         <v>46</v>
       </c>
@@ -24520,11 +24520,11 @@
       <c r="A103" s="313">
         <v>74</v>
       </c>
-      <c r="B103" s="399" t="str">
+      <c r="B103" s="397" t="str">
         <f>Q!A400</f>
         <v>BREATHER 2KG</v>
       </c>
-      <c r="C103" s="400"/>
+      <c r="C103" s="398"/>
       <c r="D103" s="22" t="s">
         <v>46</v>
       </c>
@@ -24550,11 +24550,11 @@
       <c r="A104" s="313">
         <v>75</v>
       </c>
-      <c r="B104" s="399" t="str">
+      <c r="B104" s="397" t="str">
         <f>Q!A401</f>
         <v>THERMOMETER TEK 16</v>
       </c>
-      <c r="C104" s="400"/>
+      <c r="C104" s="398"/>
       <c r="D104" s="22" t="s">
         <v>46</v>
       </c>
@@ -24580,11 +24580,11 @@
       <c r="A105" s="313">
         <v>76</v>
       </c>
-      <c r="B105" s="399" t="str">
+      <c r="B105" s="397" t="str">
         <f>Q!A402</f>
         <v>THERMOWELL 3/4" BSP</v>
       </c>
-      <c r="C105" s="400"/>
+      <c r="C105" s="398"/>
       <c r="D105" s="22" t="s">
         <v>46</v>
       </c>
@@ -24612,11 +24612,11 @@
       <c r="A106" s="313">
         <v>77</v>
       </c>
-      <c r="B106" s="399" t="str">
+      <c r="B106" s="397" t="str">
         <f>Q!A403</f>
         <v>THERMOMETER POCKET</v>
       </c>
-      <c r="C106" s="400"/>
+      <c r="C106" s="398"/>
       <c r="D106" s="22" t="s">
         <v>46</v>
       </c>
@@ -24642,11 +24642,11 @@
       <c r="A107" s="313">
         <v>78</v>
       </c>
-      <c r="B107" s="399" t="str">
+      <c r="B107" s="397" t="str">
         <f>Q!A404</f>
         <v>GALVANIZED CUP FOR THERMOMETER POCKET</v>
       </c>
-      <c r="C107" s="400"/>
+      <c r="C107" s="398"/>
       <c r="D107" s="22" t="s">
         <v>46</v>
       </c>
@@ -24672,11 +24672,11 @@
       <c r="A108" s="313">
         <v>79</v>
       </c>
-      <c r="B108" s="399" t="str">
+      <c r="B108" s="397" t="str">
         <f>Q!A405</f>
         <v>BUCHOLZ RELAY EW712</v>
       </c>
-      <c r="C108" s="400"/>
+      <c r="C108" s="398"/>
       <c r="D108" s="22" t="s">
         <v>46</v>
       </c>
@@ -24704,11 +24704,11 @@
       <c r="A109" s="313">
         <v>80</v>
       </c>
-      <c r="B109" s="399" t="str">
+      <c r="B109" s="397" t="str">
         <f>Q!A406</f>
         <v>CONSERVATOR FILLING CAP AL. 2"</v>
       </c>
-      <c r="C109" s="400"/>
+      <c r="C109" s="398"/>
       <c r="D109" s="22" t="s">
         <v>46</v>
       </c>
@@ -24736,11 +24736,11 @@
       <c r="A110" s="313">
         <v>81</v>
       </c>
-      <c r="B110" s="399" t="str">
+      <c r="B110" s="397" t="str">
         <f>Q!A407</f>
         <v>T/F WHEEL 7613T00691</v>
       </c>
-      <c r="C110" s="400"/>
+      <c r="C110" s="398"/>
       <c r="D110" s="22" t="s">
         <v>46</v>
       </c>
@@ -24766,11 +24766,11 @@
       <c r="A111" s="313">
         <v>82</v>
       </c>
-      <c r="B111" s="399" t="str">
+      <c r="B111" s="397" t="str">
         <f>Q!A408</f>
         <v>T/F WHEEL 7613T00691</v>
       </c>
-      <c r="C111" s="400"/>
+      <c r="C111" s="398"/>
       <c r="D111" s="22" t="s">
         <v>46</v>
       </c>
@@ -24794,11 +24794,11 @@
       <c r="A112" s="313">
         <v>83</v>
       </c>
-      <c r="B112" s="399" t="str">
+      <c r="B112" s="397" t="str">
         <f>Q!A409</f>
         <v>OIL TEMP. INDICATOR TD50 (354 01 12X6.0)</v>
       </c>
-      <c r="C112" s="400"/>
+      <c r="C112" s="398"/>
       <c r="D112" s="22" t="s">
         <v>46</v>
       </c>
@@ -24826,11 +24826,11 @@
       <c r="A113" s="313">
         <v>84</v>
       </c>
-      <c r="B113" s="399" t="str">
+      <c r="B113" s="397" t="str">
         <f>Q!A410</f>
         <v>WINDING TEMP. INDICATOR TD76 (354 01 12X6.0)</v>
       </c>
-      <c r="C113" s="400"/>
+      <c r="C113" s="398"/>
       <c r="D113" s="22" t="s">
         <v>46</v>
       </c>
@@ -24858,11 +24858,11 @@
       <c r="A114" s="313">
         <v>85</v>
       </c>
-      <c r="B114" s="399" t="str">
+      <c r="B114" s="397" t="str">
         <f>Q!A411</f>
         <v>RTD WTI (PT100)</v>
       </c>
-      <c r="C114" s="400"/>
+      <c r="C114" s="398"/>
       <c r="D114" s="22" t="s">
         <v>687</v>
       </c>
@@ -24886,11 +24886,11 @@
       <c r="A115" s="313">
         <v>86</v>
       </c>
-      <c r="B115" s="399" t="str">
+      <c r="B115" s="397" t="str">
         <f>Q!A412</f>
         <v>RTD OTI (PT100)</v>
       </c>
-      <c r="C115" s="400"/>
+      <c r="C115" s="398"/>
       <c r="D115" s="22" t="s">
         <v>687</v>
       </c>
@@ -24914,11 +24914,11 @@
       <c r="A116" s="313">
         <v>87</v>
       </c>
-      <c r="B116" s="399" t="str">
+      <c r="B116" s="397" t="str">
         <f>Q!A413</f>
         <v>CT 3000/2A Oil Immersed (Measuring) Ring Type 15VA/0.5</v>
       </c>
-      <c r="C116" s="400"/>
+      <c r="C116" s="398"/>
       <c r="D116" s="22" t="s">
         <v>46</v>
       </c>
@@ -24946,11 +24946,11 @@
       <c r="A117" s="313">
         <v>88</v>
       </c>
-      <c r="B117" s="399" t="str">
+      <c r="B117" s="397" t="str">
         <f>Q!A414</f>
         <v>CT 5000/5A Oil Immersed (Measuring) Ring Type 15VA/0.5</v>
       </c>
-      <c r="C117" s="400"/>
+      <c r="C117" s="398"/>
       <c r="D117" s="22" t="s">
         <v>46</v>
       </c>
@@ -24976,11 +24976,11 @@
       <c r="A118" s="313">
         <v>89</v>
       </c>
-      <c r="B118" s="399" t="str">
+      <c r="B118" s="397" t="str">
         <f>Q!A415</f>
         <v>CT 1600/1A 5P20 15VA/0.5 2 Core</v>
       </c>
-      <c r="C118" s="400"/>
+      <c r="C118" s="398"/>
       <c r="D118" s="22" t="s">
         <v>46</v>
       </c>
@@ -25008,11 +25008,11 @@
       <c r="A119" s="313">
         <v>90</v>
       </c>
-      <c r="B119" s="399" t="str">
+      <c r="B119" s="397" t="str">
         <f>Q!A416</f>
         <v>NCT 400/1A 5P20 15VA</v>
       </c>
-      <c r="C119" s="400"/>
+      <c r="C119" s="398"/>
       <c r="D119" s="22" t="s">
         <v>46</v>
       </c>
@@ -25038,11 +25038,11 @@
       <c r="A120" s="313">
         <v>91</v>
       </c>
-      <c r="B120" s="399" t="str">
+      <c r="B120" s="397" t="str">
         <f>Q!A417</f>
         <v>NCT 1600/1A 5P20 15VA</v>
       </c>
-      <c r="C120" s="400"/>
+      <c r="C120" s="398"/>
       <c r="D120" s="22" t="s">
         <v>46</v>
       </c>
@@ -25068,11 +25068,11 @@
       <c r="A121" s="313">
         <v>92</v>
       </c>
-      <c r="B121" s="399" t="str">
+      <c r="B121" s="397" t="str">
         <f>Q!A418</f>
         <v>NCT 2000/1A 5P20 15VA</v>
       </c>
-      <c r="C121" s="400"/>
+      <c r="C121" s="398"/>
       <c r="D121" s="22" t="s">
         <v>46</v>
       </c>
@@ -25098,11 +25098,11 @@
       <c r="A122" s="313">
         <v>93</v>
       </c>
-      <c r="B122" s="399" t="str">
+      <c r="B122" s="397" t="str">
         <f>Q!A419</f>
         <v>CT TERMINAL BOX (2 TERMINALS)</v>
       </c>
-      <c r="C122" s="400"/>
+      <c r="C122" s="398"/>
       <c r="D122" s="22" t="s">
         <v>46</v>
       </c>
@@ -25126,11 +25126,11 @@
       <c r="A123" s="313">
         <v>94</v>
       </c>
-      <c r="B123" s="399" t="str">
+      <c r="B123" s="397" t="str">
         <f>Q!A420</f>
         <v>CT TERMINAL BOX (4 TERMINALS)</v>
       </c>
-      <c r="C123" s="400"/>
+      <c r="C123" s="398"/>
       <c r="D123" s="22" t="s">
         <v>46</v>
       </c>
@@ -25156,11 +25156,11 @@
       <c r="A124" s="313">
         <v>95</v>
       </c>
-      <c r="B124" s="399" t="str">
+      <c r="B124" s="397" t="str">
         <f>Q!A421</f>
         <v>CT TERMINAL BOX (6 TERMINALS)</v>
       </c>
-      <c r="C124" s="400"/>
+      <c r="C124" s="398"/>
       <c r="D124" s="22" t="s">
         <v>46</v>
       </c>
@@ -25184,11 +25184,11 @@
       <c r="A125" s="313">
         <v>96</v>
       </c>
-      <c r="B125" s="399" t="str">
+      <c r="B125" s="397" t="str">
         <f>Q!A422</f>
         <v>24kV ELBOW CONNECTOR SET (03)</v>
       </c>
-      <c r="C125" s="400"/>
+      <c r="C125" s="398"/>
       <c r="D125" s="22" t="s">
         <v>46</v>
       </c>
@@ -25214,11 +25214,11 @@
       <c r="A126" s="313">
         <v>97</v>
       </c>
-      <c r="B126" s="399" t="str">
+      <c r="B126" s="397" t="str">
         <f>Q!A423</f>
         <v>36kV ELBOW CONNECTOR SET (03)</v>
       </c>
-      <c r="C126" s="400"/>
+      <c r="C126" s="398"/>
       <c r="D126" s="22" t="s">
         <v>46</v>
       </c>
@@ -25244,11 +25244,11 @@
       <c r="A127" s="313">
         <v>98</v>
       </c>
-      <c r="B127" s="399" t="str">
+      <c r="B127" s="397" t="str">
         <f>Q!A424</f>
         <v>52kV ELBOW CONNECTOR SET (04)</v>
       </c>
-      <c r="C127" s="400"/>
+      <c r="C127" s="398"/>
       <c r="D127" s="22" t="s">
         <v>46</v>
       </c>
@@ -25274,11 +25274,11 @@
       <c r="A128" s="313">
         <v>99</v>
       </c>
-      <c r="B128" s="399" t="str">
+      <c r="B128" s="397" t="str">
         <f>Q!A425</f>
         <v>OBO SURGE ARRESTERS</v>
       </c>
-      <c r="C128" s="400"/>
+      <c r="C128" s="398"/>
       <c r="D128" s="22" t="s">
         <v>46</v>
       </c>
@@ -25304,11 +25304,11 @@
       <c r="A129" s="313">
         <v>100</v>
       </c>
-      <c r="B129" s="399" t="str">
+      <c r="B129" s="397" t="str">
         <f>Q!A426</f>
         <v>LTL Name Board</v>
       </c>
-      <c r="C129" s="400"/>
+      <c r="C129" s="398"/>
       <c r="D129" s="22" t="s">
         <v>46</v>
       </c>
@@ -25336,11 +25336,11 @@
       <c r="A130" s="313">
         <v>101</v>
       </c>
-      <c r="B130" s="399" t="str">
+      <c r="B130" s="397" t="str">
         <f>Q!A427</f>
         <v>Nut, Bolt &amp; 2 Washers (Galvanized) M10 x 40 mm</v>
       </c>
-      <c r="C130" s="400"/>
+      <c r="C130" s="398"/>
       <c r="D130" s="22" t="s">
         <v>46</v>
       </c>
@@ -25364,11 +25364,11 @@
       <c r="A131" s="313">
         <v>102</v>
       </c>
-      <c r="B131" s="399" t="str">
+      <c r="B131" s="397" t="str">
         <f>Q!A428</f>
         <v>Split washers for tank cover fixing</v>
       </c>
-      <c r="C131" s="400"/>
+      <c r="C131" s="398"/>
       <c r="D131" s="22" t="s">
         <v>46</v>
       </c>
@@ -25392,11 +25392,11 @@
       <c r="A132" s="313">
         <v>103</v>
       </c>
-      <c r="B132" s="399" t="str">
+      <c r="B132" s="397" t="str">
         <f>Q!A429</f>
         <v>M12 bolt, nut, spring washer &amp; lock washer for earthing terminal</v>
       </c>
-      <c r="C132" s="400"/>
+      <c r="C132" s="398"/>
       <c r="D132" s="22" t="s">
         <v>46</v>
       </c>
@@ -25420,11 +25420,11 @@
       <c r="A133" s="313">
         <v>104</v>
       </c>
-      <c r="B133" s="399" t="str">
+      <c r="B133" s="397" t="str">
         <f>Q!A430</f>
         <v>Flange Gasket</v>
       </c>
-      <c r="C133" s="400"/>
+      <c r="C133" s="398"/>
       <c r="D133" s="22" t="s">
         <v>46</v>
       </c>
@@ -25450,11 +25450,11 @@
       <c r="A134" s="313">
         <v>105</v>
       </c>
-      <c r="B134" s="399" t="str">
+      <c r="B134" s="397" t="str">
         <f>Q!A431</f>
         <v>Wooden Pallete For Packing</v>
       </c>
-      <c r="C134" s="400"/>
+      <c r="C134" s="398"/>
       <c r="D134" s="22" t="s">
         <v>46</v>
       </c>
@@ -25480,10 +25480,10 @@
       <c r="A135" s="313">
         <v>105</v>
       </c>
-      <c r="B135" s="399" t="s">
+      <c r="B135" s="397" t="s">
         <v>995</v>
       </c>
-      <c r="C135" s="400"/>
+      <c r="C135" s="398"/>
       <c r="D135" s="22" t="s">
         <v>46</v>
       </c>
@@ -25530,11 +25530,11 @@
       <c r="A137" s="105">
         <v>106</v>
       </c>
-      <c r="B137" s="399" t="str">
+      <c r="B137" s="397" t="str">
         <f>Q!A436</f>
         <v>GALVANIZING</v>
       </c>
-      <c r="C137" s="400"/>
+      <c r="C137" s="398"/>
       <c r="D137" s="22" t="s">
         <v>45</v>
       </c>
@@ -25560,11 +25560,11 @@
       <c r="A138" s="105">
         <v>107</v>
       </c>
-      <c r="B138" s="399" t="str">
+      <c r="B138" s="397" t="str">
         <f>Q!A437</f>
         <v>PRIMER PAINT &amp; THINNER</v>
       </c>
-      <c r="C138" s="400"/>
+      <c r="C138" s="398"/>
       <c r="D138" s="22" t="s">
         <v>45</v>
       </c>
@@ -25590,11 +25590,11 @@
       <c r="A139" s="105">
         <v>108</v>
       </c>
-      <c r="B139" s="399" t="str">
+      <c r="B139" s="397" t="str">
         <f>Q!A438</f>
         <v>POWDER PAINT (RAL6028) Marine Grade</v>
       </c>
-      <c r="C139" s="400"/>
+      <c r="C139" s="398"/>
       <c r="D139" s="22" t="s">
         <v>45</v>
       </c>
@@ -25621,11 +25621,11 @@
       <c r="A140" s="105">
         <v>109</v>
       </c>
-      <c r="B140" s="399" t="str">
+      <c r="B140" s="397" t="str">
         <f>Q!A439</f>
         <v>INTERNAL PAINT</v>
       </c>
-      <c r="C140" s="400"/>
+      <c r="C140" s="398"/>
       <c r="D140" s="22" t="s">
         <v>45</v>
       </c>
@@ -25650,11 +25650,11 @@
     </row>
     <row r="141" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="105"/>
-      <c r="B141" s="399">
+      <c r="B141" s="397">
         <f>Q!A434</f>
         <v>0</v>
       </c>
-      <c r="C141" s="400"/>
+      <c r="C141" s="398"/>
       <c r="D141" s="22"/>
       <c r="E141" s="81">
         <f>Q!D434</f>
@@ -25870,10 +25870,10 @@
       <c r="M151" s="130"/>
     </row>
     <row r="152" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="407" t="s">
+      <c r="A152" s="399" t="s">
         <v>49</v>
       </c>
-      <c r="B152" s="408"/>
+      <c r="B152" s="400"/>
       <c r="C152" s="353"/>
       <c r="D152" s="353"/>
       <c r="E152" s="354"/>
@@ -26084,6 +26084,81 @@
     </row>
   </sheetData>
   <mergeCells count="91">
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B133:C133"/>
     <mergeCell ref="B126:C126"/>
     <mergeCell ref="B122:C122"/>
     <mergeCell ref="B102:C102"/>
@@ -26100,81 +26175,6 @@
     <mergeCell ref="B111:C111"/>
     <mergeCell ref="B112:C112"/>
     <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations xWindow="221" yWindow="274" count="16">
@@ -26245,7 +26245,7 @@
   <dimension ref="A2:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27012,37 +27012,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="482" t="s">
+      <c r="A3" s="498" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="482"/>
-      <c r="C3" s="482"/>
-      <c r="D3" s="482"/>
-      <c r="E3" s="482"/>
-      <c r="F3" s="482"/>
-      <c r="G3" s="482"/>
-      <c r="H3" s="482"/>
-      <c r="I3" s="482"/>
-      <c r="J3" s="482"/>
-      <c r="K3" s="482"/>
+      <c r="B3" s="498"/>
+      <c r="C3" s="498"/>
+      <c r="D3" s="498"/>
+      <c r="E3" s="498"/>
+      <c r="F3" s="498"/>
+      <c r="G3" s="498"/>
+      <c r="H3" s="498"/>
+      <c r="I3" s="498"/>
+      <c r="J3" s="498"/>
+      <c r="K3" s="498"/>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="482" t="s">
+      <c r="A5" s="498" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="482"/>
-      <c r="C5" s="482"/>
-      <c r="D5" s="482"/>
-      <c r="E5" s="482"/>
-      <c r="F5" s="482"/>
-      <c r="G5" s="482"/>
-      <c r="H5" s="482"/>
-      <c r="I5" s="482"/>
-      <c r="J5" s="482"/>
-      <c r="K5" s="482"/>
+      <c r="B5" s="498"/>
+      <c r="C5" s="498"/>
+      <c r="D5" s="498"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="498"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="498"/>
+      <c r="J5" s="498"/>
+      <c r="K5" s="498"/>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
@@ -27057,21 +27057,21 @@
       <c r="K6" s="93"/>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="483" t="s">
+      <c r="A7" s="499" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="484"/>
-      <c r="C7" s="487" t="s">
+      <c r="B7" s="500"/>
+      <c r="C7" s="503" t="s">
         <v>1007</v>
       </c>
-      <c r="D7" s="487"/>
-      <c r="E7" s="487"/>
-      <c r="F7" s="487"/>
-      <c r="G7" s="487"/>
-      <c r="H7" s="487"/>
-      <c r="I7" s="487"/>
-      <c r="J7" s="487"/>
-      <c r="K7" s="488"/>
+      <c r="D7" s="503"/>
+      <c r="E7" s="503"/>
+      <c r="F7" s="503"/>
+      <c r="G7" s="503"/>
+      <c r="H7" s="503"/>
+      <c r="I7" s="503"/>
+      <c r="J7" s="503"/>
+      <c r="K7" s="504"/>
       <c r="M7" s="1"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -27084,47 +27084,47 @@
       <c r="W7" s="14"/>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="461" t="s">
+      <c r="A8" s="477" t="s">
         <v>380</v>
       </c>
-      <c r="B8" s="462"/>
-      <c r="C8" s="480" t="str">
+      <c r="B8" s="478"/>
+      <c r="C8" s="496" t="str">
         <f>C7</f>
         <v xml:space="preserve">STI Holdings – Tanzania project </v>
       </c>
-      <c r="D8" s="480"/>
-      <c r="E8" s="480"/>
-      <c r="F8" s="480"/>
-      <c r="G8" s="480"/>
-      <c r="H8" s="480"/>
-      <c r="I8" s="480"/>
-      <c r="J8" s="480"/>
-      <c r="K8" s="481"/>
+      <c r="D8" s="496"/>
+      <c r="E8" s="496"/>
+      <c r="F8" s="496"/>
+      <c r="G8" s="496"/>
+      <c r="H8" s="496"/>
+      <c r="I8" s="496"/>
+      <c r="J8" s="496"/>
+      <c r="K8" s="497"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="485" t="s">
+      <c r="A9" s="501" t="s">
         <v>381</v>
       </c>
-      <c r="B9" s="486"/>
-      <c r="C9" s="478"/>
-      <c r="D9" s="479"/>
+      <c r="B9" s="502"/>
+      <c r="C9" s="494"/>
+      <c r="D9" s="495"/>
       <c r="E9" s="245" t="s">
         <v>406</v>
       </c>
-      <c r="F9" s="491" t="s">
+      <c r="F9" s="507" t="s">
         <v>991</v>
       </c>
-      <c r="G9" s="491"/>
-      <c r="H9" s="491"/>
+      <c r="G9" s="507"/>
+      <c r="H9" s="507"/>
       <c r="I9" s="244" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="489">
+      <c r="J9" s="505">
         <f ca="1">TODAY()</f>
         <v>45076</v>
       </c>
-      <c r="K9" s="490"/>
+      <c r="K9" s="506"/>
       <c r="O9" s="1"/>
       <c r="P9" s="8"/>
     </row>
@@ -27132,376 +27132,376 @@
       <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="500" t="s">
+      <c r="A11" s="511" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="501"/>
-      <c r="C11" s="501"/>
-      <c r="D11" s="501"/>
+      <c r="B11" s="462"/>
+      <c r="C11" s="462"/>
+      <c r="D11" s="462"/>
       <c r="E11" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="501" t="s">
+      <c r="F11" s="462" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="501"/>
-      <c r="H11" s="501" t="s">
+      <c r="G11" s="462"/>
+      <c r="H11" s="462" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="501"/>
-      <c r="J11" s="501" t="s">
+      <c r="I11" s="462"/>
+      <c r="J11" s="462" t="s">
         <v>382</v>
       </c>
-      <c r="K11" s="506"/>
+      <c r="K11" s="463"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="507" t="s">
+      <c r="A12" s="464" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="508"/>
-      <c r="C12" s="508"/>
-      <c r="D12" s="508"/>
+      <c r="B12" s="465"/>
+      <c r="C12" s="465"/>
+      <c r="D12" s="465"/>
       <c r="E12" s="257" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="509">
+      <c r="F12" s="466">
         <f ca="1">IF(M12=0,Q!B46,M12)</f>
         <v>100</v>
       </c>
-      <c r="G12" s="509"/>
-      <c r="H12" s="509">
+      <c r="G12" s="466"/>
+      <c r="H12" s="466">
         <f ca="1">F12</f>
         <v>100</v>
       </c>
-      <c r="I12" s="509"/>
-      <c r="J12" s="510"/>
-      <c r="K12" s="511"/>
+      <c r="I12" s="466"/>
+      <c r="J12" s="467"/>
+      <c r="K12" s="468"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="427" t="s">
+      <c r="A13" s="469" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="428"/>
-      <c r="C13" s="428"/>
-      <c r="D13" s="428"/>
+      <c r="B13" s="470"/>
+      <c r="C13" s="470"/>
+      <c r="D13" s="470"/>
       <c r="E13" s="316" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="421">
+      <c r="F13" s="424">
         <v>15</v>
       </c>
-      <c r="G13" s="421"/>
-      <c r="H13" s="421">
+      <c r="G13" s="424"/>
+      <c r="H13" s="424">
         <f>F13</f>
         <v>15</v>
       </c>
-      <c r="I13" s="421"/>
-      <c r="J13" s="450"/>
-      <c r="K13" s="451"/>
+      <c r="I13" s="424"/>
+      <c r="J13" s="425"/>
+      <c r="K13" s="426"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="427" t="s">
+      <c r="A14" s="469" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="428"/>
-      <c r="C14" s="428"/>
-      <c r="D14" s="428"/>
+      <c r="B14" s="470"/>
+      <c r="C14" s="470"/>
+      <c r="D14" s="470"/>
       <c r="E14" s="316" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="421" t="str">
+      <c r="F14" s="424" t="str">
         <f ca="1">H14</f>
         <v>50</v>
       </c>
-      <c r="G14" s="421"/>
-      <c r="H14" s="421" t="str">
+      <c r="G14" s="424"/>
+      <c r="H14" s="424" t="str">
         <f ca="1">Q!B60</f>
         <v>50</v>
       </c>
-      <c r="I14" s="421"/>
-      <c r="J14" s="450"/>
-      <c r="K14" s="451"/>
+      <c r="I14" s="424"/>
+      <c r="J14" s="425"/>
+      <c r="K14" s="426"/>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="427" t="s">
+      <c r="A15" s="469" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="428"/>
-      <c r="C15" s="428"/>
-      <c r="D15" s="428"/>
+      <c r="B15" s="470"/>
+      <c r="C15" s="470"/>
+      <c r="D15" s="470"/>
       <c r="E15" s="316"/>
-      <c r="F15" s="421">
+      <c r="F15" s="424">
         <f ca="1">H15</f>
         <v>3</v>
       </c>
-      <c r="G15" s="421"/>
-      <c r="H15" s="421">
+      <c r="G15" s="424"/>
+      <c r="H15" s="424">
         <f ca="1">Q!B61</f>
         <v>3</v>
       </c>
-      <c r="I15" s="421"/>
-      <c r="J15" s="450"/>
-      <c r="K15" s="451"/>
+      <c r="I15" s="424"/>
+      <c r="J15" s="425"/>
+      <c r="K15" s="426"/>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="502" t="s">
+      <c r="A16" s="471" t="s">
         <v>982</v>
       </c>
-      <c r="B16" s="503"/>
-      <c r="C16" s="503"/>
-      <c r="D16" s="503"/>
+      <c r="B16" s="472"/>
+      <c r="C16" s="472"/>
+      <c r="D16" s="472"/>
       <c r="E16" s="316" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="421">
+      <c r="F16" s="424">
         <f ca="1">Q!B47</f>
         <v>33000</v>
       </c>
-      <c r="G16" s="421"/>
-      <c r="H16" s="421">
+      <c r="G16" s="424"/>
+      <c r="H16" s="424">
         <f ca="1">F16</f>
         <v>33000</v>
       </c>
-      <c r="I16" s="421"/>
-      <c r="J16" s="504"/>
-      <c r="K16" s="505"/>
+      <c r="I16" s="424"/>
+      <c r="J16" s="440"/>
+      <c r="K16" s="441"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="513" t="s">
+      <c r="A17" s="457" t="s">
         <v>576</v>
       </c>
-      <c r="B17" s="514"/>
-      <c r="C17" s="514"/>
+      <c r="B17" s="458"/>
+      <c r="C17" s="458"/>
       <c r="D17" s="256">
         <f ca="1">Q!D66</f>
         <v>1</v>
       </c>
       <c r="E17" s="316"/>
-      <c r="F17" s="517"/>
-      <c r="G17" s="517"/>
-      <c r="H17" s="512" t="str">
+      <c r="F17" s="459"/>
+      <c r="G17" s="459"/>
+      <c r="H17" s="454" t="str">
         <f ca="1">Q!B66</f>
         <v>5%</v>
       </c>
-      <c r="I17" s="512"/>
-      <c r="J17" s="518"/>
-      <c r="K17" s="519"/>
+      <c r="I17" s="454"/>
+      <c r="J17" s="460"/>
+      <c r="K17" s="461"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="515">
+      <c r="A18" s="452">
         <f ca="1">Q!D67</f>
         <v>2</v>
       </c>
-      <c r="B18" s="516"/>
-      <c r="C18" s="516"/>
-      <c r="D18" s="516"/>
+      <c r="B18" s="453"/>
+      <c r="C18" s="453"/>
+      <c r="D18" s="453"/>
       <c r="E18" s="316"/>
-      <c r="F18" s="421"/>
-      <c r="G18" s="421"/>
-      <c r="H18" s="512" t="str">
+      <c r="F18" s="424"/>
+      <c r="G18" s="424"/>
+      <c r="H18" s="454" t="str">
         <f ca="1">Q!B67</f>
         <v>2.5%</v>
       </c>
-      <c r="I18" s="512"/>
-      <c r="J18" s="450"/>
-      <c r="K18" s="451"/>
+      <c r="I18" s="454"/>
+      <c r="J18" s="425"/>
+      <c r="K18" s="426"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="515">
+      <c r="A19" s="452">
         <f ca="1">Q!D68</f>
         <v>3</v>
       </c>
-      <c r="B19" s="516"/>
-      <c r="C19" s="516"/>
-      <c r="D19" s="516"/>
+      <c r="B19" s="453"/>
+      <c r="C19" s="453"/>
+      <c r="D19" s="453"/>
       <c r="E19" s="316"/>
-      <c r="F19" s="421"/>
-      <c r="G19" s="421"/>
-      <c r="H19" s="512" t="str">
+      <c r="F19" s="424"/>
+      <c r="G19" s="424"/>
+      <c r="H19" s="454" t="str">
         <f ca="1">Q!B68</f>
         <v>0%</v>
       </c>
-      <c r="I19" s="512"/>
-      <c r="J19" s="450"/>
-      <c r="K19" s="451"/>
+      <c r="I19" s="454"/>
+      <c r="J19" s="425"/>
+      <c r="K19" s="426"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="515">
+      <c r="A20" s="452">
         <f ca="1">Q!D69</f>
         <v>4</v>
       </c>
-      <c r="B20" s="516"/>
-      <c r="C20" s="516"/>
-      <c r="D20" s="516"/>
+      <c r="B20" s="453"/>
+      <c r="C20" s="453"/>
+      <c r="D20" s="453"/>
       <c r="E20" s="316"/>
-      <c r="F20" s="421"/>
-      <c r="G20" s="421"/>
-      <c r="H20" s="512" t="str">
+      <c r="F20" s="424"/>
+      <c r="G20" s="424"/>
+      <c r="H20" s="454" t="str">
         <f ca="1">Q!B69</f>
         <v>-2.5%</v>
       </c>
-      <c r="I20" s="512"/>
-      <c r="J20" s="450"/>
-      <c r="K20" s="451"/>
+      <c r="I20" s="454"/>
+      <c r="J20" s="425"/>
+      <c r="K20" s="426"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="515">
+      <c r="A21" s="452">
         <f ca="1">Q!D70</f>
         <v>5</v>
       </c>
-      <c r="B21" s="516"/>
-      <c r="C21" s="516"/>
-      <c r="D21" s="516"/>
+      <c r="B21" s="453"/>
+      <c r="C21" s="453"/>
+      <c r="D21" s="453"/>
       <c r="E21" s="316"/>
-      <c r="F21" s="421"/>
-      <c r="G21" s="421"/>
-      <c r="H21" s="512" t="str">
+      <c r="F21" s="424"/>
+      <c r="G21" s="424"/>
+      <c r="H21" s="454" t="str">
         <f ca="1">Q!B70</f>
         <v>-5%</v>
       </c>
-      <c r="I21" s="512"/>
-      <c r="J21" s="450"/>
-      <c r="K21" s="451"/>
+      <c r="I21" s="454"/>
+      <c r="J21" s="425"/>
+      <c r="K21" s="426"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="515" t="str">
+      <c r="A22" s="452" t="str">
         <f ca="1">Q!D71</f>
         <v/>
       </c>
-      <c r="B22" s="516"/>
-      <c r="C22" s="516"/>
-      <c r="D22" s="516"/>
+      <c r="B22" s="453"/>
+      <c r="C22" s="453"/>
+      <c r="D22" s="453"/>
       <c r="E22" s="316"/>
-      <c r="F22" s="422"/>
-      <c r="G22" s="423"/>
-      <c r="H22" s="512" t="str">
+      <c r="F22" s="430"/>
+      <c r="G22" s="431"/>
+      <c r="H22" s="454" t="str">
         <f ca="1">Q!B71</f>
         <v>-</v>
       </c>
-      <c r="I22" s="512"/>
-      <c r="J22" s="520"/>
-      <c r="K22" s="521"/>
+      <c r="I22" s="454"/>
+      <c r="J22" s="455"/>
+      <c r="K22" s="456"/>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="515" t="str">
+      <c r="A23" s="452" t="str">
         <f ca="1">Q!D72</f>
         <v/>
       </c>
-      <c r="B23" s="516"/>
-      <c r="C23" s="516"/>
-      <c r="D23" s="516"/>
+      <c r="B23" s="453"/>
+      <c r="C23" s="453"/>
+      <c r="D23" s="453"/>
       <c r="E23" s="316"/>
-      <c r="F23" s="422"/>
-      <c r="G23" s="423"/>
-      <c r="H23" s="512" t="str">
+      <c r="F23" s="430"/>
+      <c r="G23" s="431"/>
+      <c r="H23" s="454" t="str">
         <f ca="1">Q!B72</f>
         <v>-</v>
       </c>
-      <c r="I23" s="512"/>
-      <c r="J23" s="520"/>
-      <c r="K23" s="521"/>
+      <c r="I23" s="454"/>
+      <c r="J23" s="455"/>
+      <c r="K23" s="456"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="515" t="str">
+      <c r="A24" s="452" t="str">
         <f ca="1">Q!D73</f>
         <v/>
       </c>
-      <c r="B24" s="516"/>
-      <c r="C24" s="516"/>
-      <c r="D24" s="516"/>
+      <c r="B24" s="453"/>
+      <c r="C24" s="453"/>
+      <c r="D24" s="453"/>
       <c r="E24" s="316"/>
-      <c r="F24" s="422"/>
-      <c r="G24" s="423"/>
-      <c r="H24" s="512" t="str">
+      <c r="F24" s="430"/>
+      <c r="G24" s="431"/>
+      <c r="H24" s="454" t="str">
         <f ca="1">Q!B73</f>
         <v>-</v>
       </c>
-      <c r="I24" s="512"/>
-      <c r="J24" s="520"/>
-      <c r="K24" s="521"/>
+      <c r="I24" s="454"/>
+      <c r="J24" s="455"/>
+      <c r="K24" s="456"/>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="515" t="str">
+      <c r="A25" s="452" t="str">
         <f ca="1">Q!D74</f>
         <v/>
       </c>
-      <c r="B25" s="516"/>
-      <c r="C25" s="516"/>
-      <c r="D25" s="516"/>
+      <c r="B25" s="453"/>
+      <c r="C25" s="453"/>
+      <c r="D25" s="453"/>
       <c r="E25" s="316"/>
-      <c r="F25" s="422"/>
-      <c r="G25" s="423"/>
-      <c r="H25" s="512" t="str">
+      <c r="F25" s="430"/>
+      <c r="G25" s="431"/>
+      <c r="H25" s="454" t="str">
         <f ca="1">Q!B74</f>
         <v>-</v>
       </c>
-      <c r="I25" s="512"/>
-      <c r="J25" s="520"/>
-      <c r="K25" s="521"/>
+      <c r="I25" s="454"/>
+      <c r="J25" s="455"/>
+      <c r="K25" s="456"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="424" t="s">
+      <c r="A26" s="415" t="s">
         <v>983</v>
       </c>
-      <c r="B26" s="425"/>
-      <c r="C26" s="425"/>
-      <c r="D26" s="426"/>
+      <c r="B26" s="416"/>
+      <c r="C26" s="416"/>
+      <c r="D26" s="447"/>
       <c r="E26" s="317" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="421">
+      <c r="F26" s="424">
         <f ca="1">Q!B48</f>
         <v>400</v>
       </c>
-      <c r="G26" s="421"/>
-      <c r="H26" s="421">
+      <c r="G26" s="424"/>
+      <c r="H26" s="424">
         <f ca="1">F26</f>
         <v>400</v>
       </c>
-      <c r="I26" s="421"/>
-      <c r="J26" s="450"/>
-      <c r="K26" s="451"/>
+      <c r="I26" s="424"/>
+      <c r="J26" s="425"/>
+      <c r="K26" s="426"/>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="424" t="s">
+      <c r="A27" s="415" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="425"/>
-      <c r="C27" s="425"/>
-      <c r="D27" s="426"/>
+      <c r="B27" s="416"/>
+      <c r="C27" s="416"/>
+      <c r="D27" s="447"/>
       <c r="E27" s="317"/>
-      <c r="F27" s="421" t="str">
+      <c r="F27" s="424" t="str">
         <f ca="1">H27</f>
         <v>Dyn11</v>
       </c>
-      <c r="G27" s="421"/>
-      <c r="H27" s="421" t="str">
+      <c r="G27" s="424"/>
+      <c r="H27" s="424" t="str">
         <f ca="1">Q!B79</f>
         <v>Dyn11</v>
       </c>
-      <c r="I27" s="421"/>
-      <c r="J27" s="450"/>
-      <c r="K27" s="451"/>
+      <c r="I27" s="424"/>
+      <c r="J27" s="425"/>
+      <c r="K27" s="426"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="522" t="s">
+      <c r="A28" s="427" t="s">
         <v>806</v>
       </c>
-      <c r="B28" s="523"/>
-      <c r="C28" s="523"/>
-      <c r="D28" s="524"/>
+      <c r="B28" s="428"/>
+      <c r="C28" s="428"/>
+      <c r="D28" s="429"/>
       <c r="E28" s="317" t="s">
         <v>807</v>
       </c>
-      <c r="F28" s="422"/>
-      <c r="G28" s="423"/>
-      <c r="H28" s="422" t="str">
+      <c r="F28" s="430"/>
+      <c r="G28" s="431"/>
+      <c r="H28" s="430" t="str">
         <f ca="1">IF(P34="",VLOOKUP(1,O28:Q33,2,FALSE),P34)</f>
         <v>170 / -</v>
       </c>
-      <c r="I28" s="423"/>
-      <c r="J28" s="422"/>
-      <c r="K28" s="440"/>
+      <c r="I28" s="431"/>
+      <c r="J28" s="430"/>
+      <c r="K28" s="432"/>
       <c r="N28" s="272" t="s">
         <v>398</v>
       </c>
@@ -27517,24 +27517,24 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="522" t="s">
+      <c r="A29" s="427" t="s">
         <v>805</v>
       </c>
-      <c r="B29" s="523"/>
-      <c r="C29" s="523"/>
-      <c r="D29" s="524"/>
+      <c r="B29" s="428"/>
+      <c r="C29" s="428"/>
+      <c r="D29" s="429"/>
       <c r="E29" s="317" t="s">
         <v>807</v>
       </c>
-      <c r="F29" s="422"/>
-      <c r="G29" s="423"/>
-      <c r="H29" s="422" t="str">
+      <c r="F29" s="430"/>
+      <c r="G29" s="431"/>
+      <c r="H29" s="430" t="str">
         <f ca="1">IF(Q34="",VLOOKUP(1,O28:Q33,3,FALSE),Q34)</f>
         <v>70 / 3</v>
       </c>
-      <c r="I29" s="423"/>
-      <c r="J29" s="422"/>
-      <c r="K29" s="440"/>
+      <c r="I29" s="431"/>
+      <c r="J29" s="430"/>
+      <c r="K29" s="432"/>
       <c r="N29" s="272" t="s">
         <v>398</v>
       </c>
@@ -27550,50 +27550,50 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="522" t="s">
+      <c r="A30" s="427" t="s">
         <v>869</v>
       </c>
-      <c r="B30" s="523"/>
-      <c r="C30" s="523"/>
-      <c r="D30" s="524"/>
+      <c r="B30" s="428"/>
+      <c r="C30" s="428"/>
+      <c r="D30" s="429"/>
       <c r="E30" s="317"/>
-      <c r="F30" s="422" t="s">
+      <c r="F30" s="430" t="s">
         <v>969</v>
       </c>
-      <c r="G30" s="423"/>
-      <c r="H30" s="422" t="str">
+      <c r="G30" s="431"/>
+      <c r="H30" s="430" t="str">
         <f>F30</f>
         <v>Cu / Cu</v>
       </c>
-      <c r="I30" s="423"/>
-      <c r="J30" s="422"/>
-      <c r="K30" s="440"/>
+      <c r="I30" s="431"/>
+      <c r="J30" s="430"/>
+      <c r="K30" s="432"/>
       <c r="N30" s="272"/>
       <c r="O30" s="260"/>
       <c r="P30" s="331"/>
       <c r="Q30" s="260"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="522" t="s">
+      <c r="A31" s="427" t="s">
         <v>870</v>
       </c>
-      <c r="B31" s="523"/>
-      <c r="C31" s="523" t="s">
+      <c r="B31" s="428"/>
+      <c r="C31" s="428" t="s">
         <v>582</v>
       </c>
-      <c r="D31" s="524"/>
+      <c r="D31" s="429"/>
       <c r="E31" s="317" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="421"/>
-      <c r="G31" s="421"/>
-      <c r="H31" s="421">
+      <c r="F31" s="424"/>
+      <c r="G31" s="424"/>
+      <c r="H31" s="424">
         <f ca="1">Q!B81</f>
         <v>60</v>
       </c>
-      <c r="I31" s="421"/>
-      <c r="J31" s="450"/>
-      <c r="K31" s="451"/>
+      <c r="I31" s="424"/>
+      <c r="J31" s="425"/>
+      <c r="K31" s="426"/>
       <c r="N31" s="272" t="s">
         <v>399</v>
       </c>
@@ -27609,26 +27609,26 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="526" t="s">
+      <c r="A32" s="450" t="s">
         <v>580</v>
       </c>
-      <c r="B32" s="527"/>
-      <c r="C32" s="425" t="s">
+      <c r="B32" s="451"/>
+      <c r="C32" s="416" t="s">
         <v>581</v>
       </c>
-      <c r="D32" s="426"/>
+      <c r="D32" s="447"/>
       <c r="E32" s="317" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="421"/>
-      <c r="G32" s="421"/>
-      <c r="H32" s="421">
+      <c r="F32" s="424"/>
+      <c r="G32" s="424"/>
+      <c r="H32" s="424">
         <f ca="1">Q!B82</f>
         <v>55</v>
       </c>
-      <c r="I32" s="421"/>
-      <c r="J32" s="450"/>
-      <c r="K32" s="451"/>
+      <c r="I32" s="424"/>
+      <c r="J32" s="425"/>
+      <c r="K32" s="426"/>
       <c r="N32" s="272" t="s">
         <v>400</v>
       </c>
@@ -27644,24 +27644,24 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="424" t="s">
+      <c r="A33" s="415" t="s">
         <v>871</v>
       </c>
-      <c r="B33" s="425"/>
-      <c r="C33" s="425"/>
-      <c r="D33" s="426"/>
+      <c r="B33" s="416"/>
+      <c r="C33" s="416"/>
+      <c r="D33" s="447"/>
       <c r="E33" s="317" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="421"/>
-      <c r="G33" s="421"/>
-      <c r="H33" s="525">
+      <c r="F33" s="424"/>
+      <c r="G33" s="424"/>
+      <c r="H33" s="449">
         <f ca="1">Q!M91</f>
         <v>97.815056182522895</v>
       </c>
-      <c r="I33" s="525"/>
-      <c r="J33" s="450"/>
-      <c r="K33" s="451"/>
+      <c r="I33" s="449"/>
+      <c r="J33" s="425"/>
+      <c r="K33" s="426"/>
       <c r="N33" s="272" t="s">
         <v>400</v>
       </c>
@@ -27677,24 +27677,24 @@
       </c>
     </row>
     <row r="34" spans="1:17" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="424" t="s">
+      <c r="A34" s="415" t="s">
         <v>872</v>
       </c>
-      <c r="B34" s="425"/>
-      <c r="C34" s="425"/>
-      <c r="D34" s="426"/>
+      <c r="B34" s="416"/>
+      <c r="C34" s="416"/>
+      <c r="D34" s="447"/>
       <c r="E34" s="317" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="421"/>
-      <c r="G34" s="421"/>
-      <c r="H34" s="525">
+      <c r="F34" s="424"/>
+      <c r="G34" s="424"/>
+      <c r="H34" s="449">
         <f ca="1">Q!N91</f>
         <v>3.9948394082826888</v>
       </c>
-      <c r="I34" s="525"/>
-      <c r="J34" s="450"/>
-      <c r="K34" s="451"/>
+      <c r="I34" s="449"/>
+      <c r="J34" s="425"/>
+      <c r="K34" s="426"/>
       <c r="M34" s="2"/>
       <c r="N34" s="260" t="s">
         <v>816</v>
@@ -27704,295 +27704,295 @@
       <c r="Q34" s="295"/>
     </row>
     <row r="35" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="424" t="s">
+      <c r="A35" s="415" t="s">
         <v>873</v>
       </c>
-      <c r="B35" s="425"/>
-      <c r="C35" s="425"/>
-      <c r="D35" s="426"/>
+      <c r="B35" s="416"/>
+      <c r="C35" s="416"/>
+      <c r="D35" s="447"/>
       <c r="E35" s="317" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="421"/>
-      <c r="G35" s="421"/>
-      <c r="H35" s="525">
+      <c r="F35" s="424"/>
+      <c r="G35" s="424"/>
+      <c r="H35" s="449">
         <f ca="1">ROUND(Q!B86,2)</f>
         <v>0.82</v>
       </c>
-      <c r="I35" s="525"/>
-      <c r="J35" s="504" t="s">
+      <c r="I35" s="449"/>
+      <c r="J35" s="440" t="s">
         <v>848</v>
       </c>
-      <c r="K35" s="505"/>
+      <c r="K35" s="441"/>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="424" t="s">
+      <c r="A36" s="415" t="s">
         <v>874</v>
       </c>
-      <c r="B36" s="425"/>
-      <c r="C36" s="425"/>
-      <c r="D36" s="426"/>
+      <c r="B36" s="416"/>
+      <c r="C36" s="416"/>
+      <c r="D36" s="447"/>
       <c r="E36" s="317"/>
-      <c r="F36" s="421"/>
-      <c r="G36" s="421"/>
-      <c r="H36" s="421" t="s">
+      <c r="F36" s="424"/>
+      <c r="G36" s="424"/>
+      <c r="H36" s="424" t="s">
         <v>115</v>
       </c>
-      <c r="I36" s="421"/>
-      <c r="J36" s="450"/>
-      <c r="K36" s="451"/>
+      <c r="I36" s="424"/>
+      <c r="J36" s="425"/>
+      <c r="K36" s="426"/>
     </row>
     <row r="37" spans="1:17" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="424" t="s">
+      <c r="A37" s="415" t="s">
         <v>875</v>
       </c>
-      <c r="B37" s="425"/>
-      <c r="C37" s="425"/>
-      <c r="D37" s="426"/>
+      <c r="B37" s="416"/>
+      <c r="C37" s="416"/>
+      <c r="D37" s="447"/>
       <c r="E37" s="317" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="421"/>
-      <c r="G37" s="421"/>
-      <c r="H37" s="528">
+      <c r="F37" s="424"/>
+      <c r="G37" s="424"/>
+      <c r="H37" s="448">
         <f ca="1">Q!B85</f>
         <v>227</v>
       </c>
-      <c r="I37" s="528"/>
-      <c r="J37" s="504" t="s">
+      <c r="I37" s="448"/>
+      <c r="J37" s="440" t="s">
         <v>848</v>
       </c>
-      <c r="K37" s="505"/>
+      <c r="K37" s="441"/>
     </row>
     <row r="38" spans="1:17" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="424" t="s">
+      <c r="A38" s="415" t="s">
         <v>876</v>
       </c>
-      <c r="B38" s="425"/>
-      <c r="C38" s="425"/>
-      <c r="D38" s="426"/>
+      <c r="B38" s="416"/>
+      <c r="C38" s="416"/>
+      <c r="D38" s="447"/>
       <c r="E38" s="317" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="421"/>
-      <c r="G38" s="421"/>
-      <c r="H38" s="528">
+      <c r="F38" s="424"/>
+      <c r="G38" s="424"/>
+      <c r="H38" s="448">
         <v>2500</v>
       </c>
-      <c r="I38" s="528"/>
-      <c r="J38" s="504" t="s">
+      <c r="I38" s="448"/>
+      <c r="J38" s="440" t="s">
         <v>848</v>
       </c>
-      <c r="K38" s="505"/>
+      <c r="K38" s="441"/>
     </row>
     <row r="39" spans="1:17" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="424" t="s">
+      <c r="A39" s="415" t="s">
         <v>877</v>
       </c>
-      <c r="B39" s="425"/>
-      <c r="C39" s="425"/>
-      <c r="D39" s="426"/>
+      <c r="B39" s="416"/>
+      <c r="C39" s="416"/>
+      <c r="D39" s="447"/>
       <c r="E39" s="317" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="421"/>
-      <c r="G39" s="421"/>
-      <c r="H39" s="525">
+      <c r="F39" s="424"/>
+      <c r="G39" s="424"/>
+      <c r="H39" s="449">
         <v>4.3</v>
       </c>
-      <c r="I39" s="525"/>
-      <c r="J39" s="504" t="s">
+      <c r="I39" s="449"/>
+      <c r="J39" s="440" t="s">
         <v>848</v>
       </c>
-      <c r="K39" s="505"/>
+      <c r="K39" s="441"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="424" t="s">
+      <c r="A40" s="415" t="s">
         <v>878</v>
       </c>
-      <c r="B40" s="425"/>
-      <c r="C40" s="425"/>
-      <c r="D40" s="426"/>
+      <c r="B40" s="416"/>
+      <c r="C40" s="416"/>
+      <c r="D40" s="447"/>
       <c r="E40" s="317" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="421"/>
-      <c r="G40" s="421"/>
-      <c r="H40" s="421">
+      <c r="F40" s="424"/>
+      <c r="G40" s="424"/>
+      <c r="H40" s="424">
         <f ca="1">Q!B87</f>
         <v>45</v>
       </c>
-      <c r="I40" s="421"/>
-      <c r="J40" s="450"/>
-      <c r="K40" s="451"/>
+      <c r="I40" s="424"/>
+      <c r="J40" s="425"/>
+      <c r="K40" s="426"/>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="537" t="s">
+      <c r="A41" s="435" t="s">
         <v>879</v>
       </c>
-      <c r="B41" s="538"/>
-      <c r="C41" s="538"/>
-      <c r="D41" s="538"/>
+      <c r="B41" s="436"/>
+      <c r="C41" s="436"/>
+      <c r="D41" s="436"/>
       <c r="E41" s="316"/>
-      <c r="F41" s="421"/>
-      <c r="G41" s="421"/>
-      <c r="H41" s="531"/>
-      <c r="I41" s="532"/>
-      <c r="J41" s="450"/>
-      <c r="K41" s="451"/>
+      <c r="F41" s="424"/>
+      <c r="G41" s="424"/>
+      <c r="H41" s="442"/>
+      <c r="I41" s="443"/>
+      <c r="J41" s="425"/>
+      <c r="K41" s="426"/>
       <c r="M41" s="44"/>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="415"/>
-      <c r="B42" s="416"/>
-      <c r="C42" s="417" t="s">
+      <c r="A42" s="437"/>
+      <c r="B42" s="438"/>
+      <c r="C42" s="537" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="418"/>
+      <c r="D42" s="538"/>
       <c r="E42" s="316" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="422"/>
-      <c r="G42" s="423"/>
-      <c r="H42" s="421">
+      <c r="F42" s="430"/>
+      <c r="G42" s="431"/>
+      <c r="H42" s="424">
         <f ca="1">Q!B114</f>
         <v>1555</v>
       </c>
-      <c r="I42" s="421"/>
-      <c r="J42" s="429" t="s">
+      <c r="I42" s="424"/>
+      <c r="J42" s="419" t="s">
         <v>573</v>
       </c>
-      <c r="K42" s="529"/>
+      <c r="K42" s="420"/>
       <c r="M42" s="44"/>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="415"/>
-      <c r="B43" s="416"/>
-      <c r="C43" s="417" t="s">
+      <c r="A43" s="437"/>
+      <c r="B43" s="438"/>
+      <c r="C43" s="537" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="418"/>
+      <c r="D43" s="538"/>
       <c r="E43" s="316" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="421"/>
-      <c r="G43" s="421"/>
-      <c r="H43" s="421">
+      <c r="F43" s="424"/>
+      <c r="G43" s="424"/>
+      <c r="H43" s="424">
         <f ca="1">Q!B115</f>
         <v>921</v>
       </c>
-      <c r="I43" s="421"/>
-      <c r="J43" s="429" t="s">
+      <c r="I43" s="424"/>
+      <c r="J43" s="419" t="s">
         <v>573</v>
       </c>
-      <c r="K43" s="529"/>
+      <c r="K43" s="420"/>
       <c r="M43" s="44"/>
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="415"/>
-      <c r="B44" s="416"/>
-      <c r="C44" s="419" t="s">
+      <c r="A44" s="437"/>
+      <c r="B44" s="438"/>
+      <c r="C44" s="535" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="420"/>
+      <c r="D44" s="536"/>
       <c r="E44" s="316" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="421"/>
-      <c r="G44" s="421"/>
-      <c r="H44" s="421">
+      <c r="F44" s="424"/>
+      <c r="G44" s="424"/>
+      <c r="H44" s="424">
         <f ca="1">Q!B116</f>
         <v>1062</v>
       </c>
-      <c r="I44" s="421"/>
-      <c r="J44" s="429" t="s">
+      <c r="I44" s="424"/>
+      <c r="J44" s="419" t="s">
         <v>573</v>
       </c>
-      <c r="K44" s="529"/>
+      <c r="K44" s="420"/>
       <c r="M44" s="44"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="424" t="s">
+      <c r="A45" s="415" t="s">
         <v>880</v>
       </c>
-      <c r="B45" s="425"/>
-      <c r="C45" s="425"/>
-      <c r="D45" s="426"/>
+      <c r="B45" s="416"/>
+      <c r="C45" s="416"/>
+      <c r="D45" s="447"/>
       <c r="E45" s="317" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="421"/>
-      <c r="G45" s="421"/>
-      <c r="H45" s="421">
+      <c r="F45" s="424"/>
+      <c r="G45" s="424"/>
+      <c r="H45" s="424">
         <f ca="1">Q!B117</f>
         <v>980</v>
       </c>
-      <c r="I45" s="421"/>
-      <c r="J45" s="429" t="s">
+      <c r="I45" s="424"/>
+      <c r="J45" s="419" t="s">
         <v>573</v>
       </c>
-      <c r="K45" s="529"/>
+      <c r="K45" s="420"/>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="424" t="s">
+      <c r="A46" s="415" t="s">
         <v>881</v>
       </c>
-      <c r="B46" s="425"/>
-      <c r="C46" s="425"/>
-      <c r="D46" s="426"/>
+      <c r="B46" s="416"/>
+      <c r="C46" s="416"/>
+      <c r="D46" s="447"/>
       <c r="E46" s="317" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="422"/>
-      <c r="G46" s="423"/>
-      <c r="H46" s="421">
+      <c r="F46" s="430"/>
+      <c r="G46" s="431"/>
+      <c r="H46" s="424">
         <f ca="1">Q!B118</f>
         <v>300</v>
       </c>
-      <c r="I46" s="421"/>
-      <c r="J46" s="429" t="s">
+      <c r="I46" s="424"/>
+      <c r="J46" s="419" t="s">
         <v>573</v>
       </c>
-      <c r="K46" s="529"/>
+      <c r="K46" s="420"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="424" t="s">
+      <c r="A47" s="415" t="s">
         <v>882</v>
       </c>
-      <c r="B47" s="425"/>
-      <c r="C47" s="425"/>
-      <c r="D47" s="426"/>
+      <c r="B47" s="416"/>
+      <c r="C47" s="416"/>
+      <c r="D47" s="447"/>
       <c r="E47" s="317" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="422"/>
-      <c r="G47" s="423"/>
-      <c r="H47" s="422">
+      <c r="F47" s="430"/>
+      <c r="G47" s="431"/>
+      <c r="H47" s="430">
         <f ca="1">Q!B120</f>
         <v>490</v>
       </c>
-      <c r="I47" s="423"/>
-      <c r="J47" s="429" t="s">
+      <c r="I47" s="431"/>
+      <c r="J47" s="419" t="s">
         <v>573</v>
       </c>
-      <c r="K47" s="529"/>
+      <c r="K47" s="420"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="494" t="s">
+      <c r="A48" s="421" t="s">
         <v>883</v>
       </c>
-      <c r="B48" s="495"/>
-      <c r="C48" s="495"/>
-      <c r="D48" s="496"/>
+      <c r="B48" s="422"/>
+      <c r="C48" s="422"/>
+      <c r="D48" s="423"/>
       <c r="E48" s="317"/>
-      <c r="F48" s="422"/>
-      <c r="G48" s="423"/>
-      <c r="H48" s="422" t="s">
+      <c r="F48" s="430"/>
+      <c r="G48" s="431"/>
+      <c r="H48" s="430" t="s">
         <v>124</v>
       </c>
-      <c r="I48" s="423"/>
-      <c r="J48" s="429"/>
-      <c r="K48" s="529"/>
+      <c r="I48" s="431"/>
+      <c r="J48" s="419"/>
+      <c r="K48" s="420"/>
       <c r="L48" s="14" t="s">
         <v>383</v>
       </c>
@@ -28002,21 +28002,21 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="427" t="s">
+      <c r="A49" s="469" t="s">
         <v>884</v>
       </c>
-      <c r="B49" s="428"/>
-      <c r="C49" s="428"/>
-      <c r="D49" s="428"/>
+      <c r="B49" s="470"/>
+      <c r="C49" s="470"/>
+      <c r="D49" s="470"/>
       <c r="E49" s="317"/>
-      <c r="F49" s="421"/>
-      <c r="G49" s="421"/>
-      <c r="H49" s="421" t="s">
+      <c r="F49" s="424"/>
+      <c r="G49" s="424"/>
+      <c r="H49" s="424" t="s">
         <v>124</v>
       </c>
-      <c r="I49" s="421"/>
-      <c r="J49" s="421"/>
-      <c r="K49" s="530"/>
+      <c r="I49" s="424"/>
+      <c r="J49" s="424"/>
+      <c r="K49" s="439"/>
       <c r="L49" s="14" t="s">
         <v>124</v>
       </c>
@@ -28026,24 +28026,24 @@
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="497" t="s">
+      <c r="A50" s="510" t="s">
         <v>885</v>
       </c>
-      <c r="B50" s="498"/>
-      <c r="C50" s="498"/>
-      <c r="D50" s="499"/>
+      <c r="B50" s="417"/>
+      <c r="C50" s="417"/>
+      <c r="D50" s="418"/>
       <c r="E50" s="317"/>
-      <c r="F50" s="429" t="s">
+      <c r="F50" s="419" t="s">
         <v>384</v>
       </c>
-      <c r="G50" s="430"/>
-      <c r="H50" s="429" t="str">
+      <c r="G50" s="444"/>
+      <c r="H50" s="419" t="str">
         <f>F50</f>
         <v>Hermetically sealed</v>
       </c>
-      <c r="I50" s="430"/>
-      <c r="J50" s="422"/>
-      <c r="K50" s="440"/>
+      <c r="I50" s="444"/>
+      <c r="J50" s="430"/>
+      <c r="K50" s="432"/>
       <c r="L50" s="14" t="s">
         <v>405</v>
       </c>
@@ -28057,23 +28057,23 @@
       <c r="P50" s="14"/>
     </row>
     <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="424" t="s">
+      <c r="A51" s="415" t="s">
         <v>886</v>
       </c>
-      <c r="B51" s="425"/>
-      <c r="C51" s="425"/>
-      <c r="D51" s="426"/>
+      <c r="B51" s="416"/>
+      <c r="C51" s="416"/>
+      <c r="D51" s="447"/>
       <c r="E51" s="317"/>
-      <c r="F51" s="421"/>
-      <c r="G51" s="421"/>
-      <c r="H51" s="535" t="s">
+      <c r="F51" s="424"/>
+      <c r="G51" s="424"/>
+      <c r="H51" s="433" t="s">
         <v>387</v>
       </c>
-      <c r="I51" s="536"/>
-      <c r="J51" s="504" t="s">
+      <c r="I51" s="434"/>
+      <c r="J51" s="440" t="s">
         <v>990</v>
       </c>
-      <c r="K51" s="505"/>
+      <c r="K51" s="441"/>
       <c r="L51" s="14"/>
       <c r="M51" s="14" t="s">
         <v>188</v>
@@ -28085,23 +28085,23 @@
       <c r="P51" s="14"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="424" t="s">
+      <c r="A52" s="415" t="s">
         <v>887</v>
       </c>
-      <c r="B52" s="425"/>
-      <c r="C52" s="425"/>
-      <c r="D52" s="426"/>
+      <c r="B52" s="416"/>
+      <c r="C52" s="416"/>
+      <c r="D52" s="447"/>
       <c r="E52" s="317"/>
-      <c r="F52" s="422"/>
-      <c r="G52" s="423"/>
-      <c r="H52" s="533" t="s">
+      <c r="F52" s="430"/>
+      <c r="G52" s="431"/>
+      <c r="H52" s="445" t="s">
         <v>850</v>
       </c>
-      <c r="I52" s="534"/>
-      <c r="J52" s="429" t="s">
+      <c r="I52" s="446"/>
+      <c r="J52" s="419" t="s">
         <v>851</v>
       </c>
-      <c r="K52" s="529"/>
+      <c r="K52" s="420"/>
       <c r="L52" s="14"/>
       <c r="N52" s="14"/>
       <c r="O52" s="14" t="s">
@@ -28110,57 +28110,57 @@
       <c r="P52" s="14"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="494" t="s">
+      <c r="A53" s="421" t="s">
         <v>888</v>
       </c>
-      <c r="B53" s="495"/>
-      <c r="C53" s="495"/>
-      <c r="D53" s="496"/>
+      <c r="B53" s="422"/>
+      <c r="C53" s="422"/>
+      <c r="D53" s="423"/>
       <c r="E53" s="317"/>
-      <c r="F53" s="421"/>
-      <c r="G53" s="421"/>
-      <c r="H53" s="421"/>
-      <c r="I53" s="421"/>
-      <c r="J53" s="450"/>
-      <c r="K53" s="451"/>
+      <c r="F53" s="424"/>
+      <c r="G53" s="424"/>
+      <c r="H53" s="424"/>
+      <c r="I53" s="424"/>
+      <c r="J53" s="425"/>
+      <c r="K53" s="426"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="415"/>
-      <c r="B54" s="416"/>
-      <c r="C54" s="417" t="s">
+      <c r="A54" s="437"/>
+      <c r="B54" s="438"/>
+      <c r="C54" s="537" t="s">
         <v>577</v>
       </c>
-      <c r="D54" s="418"/>
+      <c r="D54" s="538"/>
       <c r="E54" s="317" t="s">
         <v>85</v>
       </c>
-      <c r="F54" s="421"/>
-      <c r="G54" s="421"/>
-      <c r="H54" s="421">
+      <c r="F54" s="424"/>
+      <c r="G54" s="424"/>
+      <c r="H54" s="424">
         <v>45</v>
       </c>
-      <c r="I54" s="421"/>
-      <c r="J54" s="450"/>
-      <c r="K54" s="451"/>
+      <c r="I54" s="424"/>
+      <c r="J54" s="425"/>
+      <c r="K54" s="426"/>
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="415"/>
-      <c r="B55" s="416"/>
-      <c r="C55" s="417" t="s">
+      <c r="A55" s="437"/>
+      <c r="B55" s="438"/>
+      <c r="C55" s="537" t="s">
         <v>578</v>
       </c>
-      <c r="D55" s="418"/>
+      <c r="D55" s="538"/>
       <c r="E55" s="317" t="s">
         <v>85</v>
       </c>
-      <c r="F55" s="422"/>
-      <c r="G55" s="423"/>
-      <c r="H55" s="421">
+      <c r="F55" s="430"/>
+      <c r="G55" s="431"/>
+      <c r="H55" s="424">
         <v>35</v>
       </c>
-      <c r="I55" s="421"/>
-      <c r="J55" s="422"/>
-      <c r="K55" s="440"/>
+      <c r="I55" s="424"/>
+      <c r="J55" s="430"/>
+      <c r="K55" s="432"/>
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
@@ -28168,23 +28168,23 @@
       <c r="P55" s="14"/>
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="415"/>
-      <c r="B56" s="416"/>
-      <c r="C56" s="419" t="s">
+      <c r="A56" s="437"/>
+      <c r="B56" s="438"/>
+      <c r="C56" s="535" t="s">
         <v>579</v>
       </c>
-      <c r="D56" s="420"/>
+      <c r="D56" s="536"/>
       <c r="E56" s="317" t="s">
         <v>85</v>
       </c>
-      <c r="F56" s="421"/>
-      <c r="G56" s="421"/>
-      <c r="H56" s="421">
+      <c r="F56" s="424"/>
+      <c r="G56" s="424"/>
+      <c r="H56" s="424">
         <v>25</v>
       </c>
-      <c r="I56" s="421"/>
-      <c r="J56" s="450"/>
-      <c r="K56" s="451"/>
+      <c r="I56" s="424"/>
+      <c r="J56" s="425"/>
+      <c r="K56" s="426"/>
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
       <c r="N56" s="14"/>
@@ -28192,195 +28192,195 @@
       <c r="P56" s="14"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="424" t="s">
+      <c r="A57" s="415" t="s">
         <v>889</v>
       </c>
-      <c r="B57" s="425"/>
-      <c r="C57" s="498"/>
-      <c r="D57" s="499"/>
+      <c r="B57" s="416"/>
+      <c r="C57" s="417"/>
+      <c r="D57" s="418"/>
       <c r="E57" s="317" t="s">
         <v>61</v>
       </c>
-      <c r="F57" s="421"/>
-      <c r="G57" s="421"/>
-      <c r="H57" s="421">
+      <c r="F57" s="424"/>
+      <c r="G57" s="424"/>
+      <c r="H57" s="424">
         <v>1000</v>
       </c>
-      <c r="I57" s="421"/>
-      <c r="J57" s="450"/>
-      <c r="K57" s="451"/>
+      <c r="I57" s="424"/>
+      <c r="J57" s="425"/>
+      <c r="K57" s="426"/>
     </row>
     <row r="58" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="453" t="s">
+      <c r="A58" s="528" t="s">
         <v>890</v>
       </c>
-      <c r="B58" s="454"/>
-      <c r="C58" s="454"/>
-      <c r="D58" s="455"/>
+      <c r="B58" s="529"/>
+      <c r="C58" s="529"/>
+      <c r="D58" s="530"/>
       <c r="E58" s="318"/>
-      <c r="F58" s="456"/>
-      <c r="G58" s="456"/>
-      <c r="H58" s="457" t="s">
+      <c r="F58" s="531"/>
+      <c r="G58" s="531"/>
+      <c r="H58" s="532" t="s">
         <v>323</v>
       </c>
-      <c r="I58" s="457"/>
-      <c r="J58" s="458"/>
-      <c r="K58" s="459"/>
+      <c r="I58" s="532"/>
+      <c r="J58" s="533"/>
+      <c r="K58" s="534"/>
     </row>
     <row r="59" spans="1:16" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="452"/>
-      <c r="B59" s="452"/>
-      <c r="C59" s="452"/>
-      <c r="D59" s="452"/>
-      <c r="E59" s="452"/>
-      <c r="F59" s="452"/>
-      <c r="G59" s="452"/>
-      <c r="H59" s="452"/>
-      <c r="I59" s="452"/>
-      <c r="J59" s="452"/>
-      <c r="K59" s="452"/>
+      <c r="A59" s="527"/>
+      <c r="B59" s="527"/>
+      <c r="C59" s="527"/>
+      <c r="D59" s="527"/>
+      <c r="E59" s="527"/>
+      <c r="F59" s="527"/>
+      <c r="G59" s="527"/>
+      <c r="H59" s="527"/>
+      <c r="I59" s="527"/>
+      <c r="J59" s="527"/>
+      <c r="K59" s="527"/>
     </row>
     <row r="60" spans="1:16" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="463" t="s">
+      <c r="A60" s="479" t="s">
         <v>891</v>
       </c>
-      <c r="B60" s="464"/>
-      <c r="C60" s="464"/>
-      <c r="D60" s="465" t="s">
+      <c r="B60" s="480"/>
+      <c r="C60" s="480"/>
+      <c r="D60" s="481" t="s">
         <v>993</v>
       </c>
-      <c r="E60" s="466"/>
-      <c r="F60" s="466"/>
-      <c r="G60" s="466"/>
-      <c r="H60" s="466"/>
-      <c r="I60" s="466"/>
-      <c r="J60" s="466"/>
-      <c r="K60" s="467"/>
+      <c r="E60" s="482"/>
+      <c r="F60" s="482"/>
+      <c r="G60" s="482"/>
+      <c r="H60" s="482"/>
+      <c r="I60" s="482"/>
+      <c r="J60" s="482"/>
+      <c r="K60" s="483"/>
     </row>
     <row r="61" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="474" t="s">
+      <c r="A61" s="490" t="s">
         <v>574</v>
       </c>
-      <c r="B61" s="475"/>
-      <c r="C61" s="492" t="s">
+      <c r="B61" s="491"/>
+      <c r="C61" s="508" t="s">
         <v>124</v>
       </c>
-      <c r="D61" s="468"/>
-      <c r="E61" s="469"/>
-      <c r="F61" s="469"/>
-      <c r="G61" s="469"/>
-      <c r="H61" s="469"/>
-      <c r="I61" s="469"/>
-      <c r="J61" s="469"/>
-      <c r="K61" s="470"/>
+      <c r="D61" s="484"/>
+      <c r="E61" s="485"/>
+      <c r="F61" s="485"/>
+      <c r="G61" s="485"/>
+      <c r="H61" s="485"/>
+      <c r="I61" s="485"/>
+      <c r="J61" s="485"/>
+      <c r="K61" s="486"/>
     </row>
     <row r="62" spans="1:16" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="476"/>
-      <c r="B62" s="477"/>
-      <c r="C62" s="493"/>
-      <c r="D62" s="471"/>
-      <c r="E62" s="472"/>
-      <c r="F62" s="472"/>
-      <c r="G62" s="472"/>
-      <c r="H62" s="472"/>
-      <c r="I62" s="472"/>
-      <c r="J62" s="472"/>
-      <c r="K62" s="473"/>
+      <c r="A62" s="492"/>
+      <c r="B62" s="493"/>
+      <c r="C62" s="509"/>
+      <c r="D62" s="487"/>
+      <c r="E62" s="488"/>
+      <c r="F62" s="488"/>
+      <c r="G62" s="488"/>
+      <c r="H62" s="488"/>
+      <c r="I62" s="488"/>
+      <c r="J62" s="488"/>
+      <c r="K62" s="489"/>
     </row>
     <row r="63" spans="1:16" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="443" t="s">
+      <c r="A63" s="473" t="s">
         <v>549</v>
       </c>
-      <c r="B63" s="444"/>
+      <c r="B63" s="523"/>
       <c r="C63" s="255" t="s">
         <v>383</v>
       </c>
       <c r="D63" s="205"/>
-      <c r="E63" s="441" t="s">
+      <c r="E63" s="521" t="s">
         <v>90</v>
       </c>
-      <c r="F63" s="441"/>
-      <c r="G63" s="441" t="s">
+      <c r="F63" s="521"/>
+      <c r="G63" s="521" t="s">
         <v>91</v>
       </c>
-      <c r="H63" s="441"/>
-      <c r="I63" s="441"/>
-      <c r="J63" s="441" t="s">
+      <c r="H63" s="521"/>
+      <c r="I63" s="521"/>
+      <c r="J63" s="521" t="s">
         <v>50</v>
       </c>
-      <c r="K63" s="442"/>
+      <c r="K63" s="522"/>
     </row>
     <row r="64" spans="1:16" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="443" t="s">
+      <c r="A64" s="473" t="s">
         <v>992</v>
       </c>
-      <c r="B64" s="444"/>
+      <c r="B64" s="523"/>
       <c r="C64" s="255" t="s">
         <v>383</v>
       </c>
       <c r="D64" s="243" t="s">
         <v>388</v>
       </c>
-      <c r="E64" s="445" t="s">
+      <c r="E64" s="475" t="s">
         <v>118</v>
       </c>
-      <c r="F64" s="446"/>
-      <c r="G64" s="422"/>
-      <c r="H64" s="447"/>
-      <c r="I64" s="423"/>
-      <c r="J64" s="448">
+      <c r="F64" s="476"/>
+      <c r="G64" s="430"/>
+      <c r="H64" s="524"/>
+      <c r="I64" s="431"/>
+      <c r="J64" s="525">
         <f ca="1">TODAY()</f>
         <v>45076</v>
       </c>
-      <c r="K64" s="449"/>
+      <c r="K64" s="526"/>
     </row>
     <row r="65" spans="1:11" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="443" t="s">
+      <c r="A65" s="473" t="s">
         <v>853</v>
       </c>
-      <c r="B65" s="460"/>
+      <c r="B65" s="474"/>
       <c r="C65" s="383" t="s">
         <v>383</v>
       </c>
       <c r="D65" s="243" t="s">
         <v>854</v>
       </c>
-      <c r="E65" s="445" t="s">
+      <c r="E65" s="475" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="446"/>
-      <c r="G65" s="422"/>
-      <c r="H65" s="447"/>
-      <c r="I65" s="423"/>
-      <c r="J65" s="448">
+      <c r="F65" s="476"/>
+      <c r="G65" s="430"/>
+      <c r="H65" s="524"/>
+      <c r="I65" s="431"/>
+      <c r="J65" s="525">
         <f ca="1">TODAY()</f>
         <v>45076</v>
       </c>
-      <c r="K65" s="449"/>
+      <c r="K65" s="526"/>
     </row>
     <row r="66" spans="1:11" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="431" t="s">
+      <c r="A66" s="512" t="s">
         <v>852</v>
       </c>
-      <c r="B66" s="432"/>
+      <c r="B66" s="513"/>
       <c r="C66" s="254" t="s">
         <v>383</v>
       </c>
       <c r="D66" s="244" t="s">
         <v>389</v>
       </c>
-      <c r="E66" s="433" t="s">
+      <c r="E66" s="514" t="s">
         <v>118</v>
       </c>
-      <c r="F66" s="434"/>
-      <c r="G66" s="435"/>
-      <c r="H66" s="436"/>
-      <c r="I66" s="437"/>
-      <c r="J66" s="438">
+      <c r="F66" s="515"/>
+      <c r="G66" s="516"/>
+      <c r="H66" s="517"/>
+      <c r="I66" s="518"/>
+      <c r="J66" s="519">
         <f ca="1">TODAY()</f>
         <v>45076</v>
       </c>
-      <c r="K66" s="439"/>
+      <c r="K66" s="520"/>
     </row>
     <row r="67" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="206"/>
@@ -28412,6 +28412,213 @@
     </row>
   </sheetData>
   <mergeCells count="231">
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:K62"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A52:D52"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="A53:D53"/>
@@ -28436,213 +28643,6 @@
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="J54:K54"/>
     <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:K62"/>
-    <mergeCell ref="A61:B62"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C54:D54"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="5">
@@ -28699,52 +28699,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="544" t="s">
+      <c r="A1" s="591" t="s">
         <v>752</v>
       </c>
-      <c r="B1" s="544"/>
-      <c r="C1" s="544"/>
-      <c r="D1" s="544"/>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="G1" s="544"/>
+      <c r="B1" s="591"/>
+      <c r="C1" s="591"/>
+      <c r="D1" s="591"/>
+      <c r="E1" s="591"/>
+      <c r="F1" s="591"/>
+      <c r="G1" s="591"/>
     </row>
     <row r="2" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="552" t="s">
+      <c r="A2" s="592" t="s">
         <v>373</v>
       </c>
-      <c r="B2" s="552"/>
-      <c r="C2" s="552"/>
-      <c r="D2" s="552"/>
-      <c r="E2" s="552"/>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
+      <c r="B2" s="592"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="592"/>
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
     </row>
     <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="544"/>
-      <c r="B3" s="544"/>
-      <c r="C3" s="544"/>
-      <c r="D3" s="544"/>
-      <c r="E3" s="544"/>
-      <c r="F3" s="544"/>
-      <c r="G3" s="544"/>
+      <c r="A3" s="591"/>
+      <c r="B3" s="591"/>
+      <c r="C3" s="591"/>
+      <c r="D3" s="591"/>
+      <c r="E3" s="591"/>
+      <c r="F3" s="591"/>
+      <c r="G3" s="591"/>
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="563" t="s">
+      <c r="A4" s="598" t="s">
         <v>324</v>
       </c>
-      <c r="B4" s="564"/>
+      <c r="B4" s="599"/>
       <c r="C4" s="222" t="str">
         <f ca="1">"B (T) : "&amp;LEFT(P!C27,FIND("T",P!C27,1)-1)</f>
         <v xml:space="preserve">B (T) : 1.450 </v>
       </c>
-      <c r="D4" s="558" t="str">
+      <c r="D4" s="593" t="str">
         <f ca="1">"L (mm) : "&amp;IF(LEFT(P!B37,3)="Adj",Q!K186,Q!B186)</f>
         <v>L (mm) : 73</v>
       </c>
-      <c r="E4" s="559"/>
-      <c r="F4" s="560"/>
+      <c r="E4" s="594"/>
+      <c r="F4" s="595"/>
       <c r="G4" s="223" t="s">
         <v>325</v>
       </c>
@@ -28774,12 +28774,12 @@
         <f ca="1">"C - C (mm) : "&amp;Q!B142</f>
         <v>C - C (mm) : 294</v>
       </c>
-      <c r="D5" s="545" t="str">
+      <c r="D5" s="540" t="str">
         <f>"W1 / W2 / W3 / W4 (mm) : 29.5 / 20 / 17.5 / 11 (HV) / 4 (LV)"</f>
         <v>W1 / W2 / W3 / W4 (mm) : 29.5 / 20 / 17.5 / 11 (HV) / 4 (LV)</v>
       </c>
-      <c r="E5" s="545"/>
-      <c r="F5" s="545"/>
+      <c r="E5" s="540"/>
+      <c r="F5" s="540"/>
       <c r="G5" s="225"/>
       <c r="H5" s="15"/>
       <c r="I5" s="2" t="s">
@@ -28796,11 +28796,11 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="553" t="str">
+      <c r="A6" s="543" t="str">
         <f ca="1">"AREA : "&amp;RIGHT(P!E28,LEN(P!E28)-FIND("/",P!E28,1))</f>
         <v>AREA :  199.3 cm2</v>
       </c>
-      <c r="B6" s="554"/>
+      <c r="B6" s="545"/>
       <c r="C6" s="194" t="str">
         <f ca="1">"W - H (mm) : "&amp;Q!B141</f>
         <v>W - H (mm) : 232</v>
@@ -28809,11 +28809,11 @@
         <f ca="1">"A (mm) : "&amp;Q!B186+Q!B187+Q!B188+Q!B189+Q!B190</f>
         <v>A (mm) : 184</v>
       </c>
-      <c r="E6" s="545" t="str">
+      <c r="E6" s="540" t="str">
         <f ca="1">"H (mm) : "&amp;Q!A186</f>
         <v>H (mm) : 130</v>
       </c>
-      <c r="F6" s="545"/>
+      <c r="F6" s="540"/>
       <c r="G6" s="225" t="str">
         <f ca="1">Q!J186</f>
         <v xml:space="preserve">   156.8 </v>
@@ -28822,15 +28822,15 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="555"/>
-      <c r="B7" s="556"/>
-      <c r="C7" s="556"/>
-      <c r="D7" s="557"/>
-      <c r="E7" s="545" t="str">
+      <c r="A7" s="574"/>
+      <c r="B7" s="555"/>
+      <c r="C7" s="555"/>
+      <c r="D7" s="584"/>
+      <c r="E7" s="540" t="str">
         <f ca="1">"T1 / T2 / T3 / T4 (mm) : "&amp;Q!A187&amp;" / "&amp;Q!A188&amp;" / "&amp;Q!A189&amp;" / "&amp;Q!A190</f>
         <v>T1 / T2 / T3 / T4 (mm) : 120 / 100 / 70 / 0</v>
       </c>
-      <c r="F7" s="545"/>
+      <c r="F7" s="540"/>
       <c r="G7" s="225" t="str">
         <f ca="1">VALUE(Q!J187)&amp;" / "&amp;VALUE(Q!J188)&amp;" / "&amp;VALUE(Q!J189)&amp;" / "&amp;VALUE(Q!J190)</f>
         <v>99.2 / 52.5 / 29.6 / 0</v>
@@ -28838,13 +28838,13 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="547"/>
-      <c r="B8" s="548"/>
-      <c r="C8" s="548"/>
-      <c r="D8" s="548"/>
-      <c r="E8" s="548"/>
-      <c r="F8" s="548"/>
-      <c r="G8" s="549"/>
+      <c r="A8" s="552"/>
+      <c r="B8" s="553"/>
+      <c r="C8" s="553"/>
+      <c r="D8" s="553"/>
+      <c r="E8" s="553"/>
+      <c r="F8" s="553"/>
+      <c r="G8" s="554"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -28852,87 +28852,87 @@
         <v>326</v>
       </c>
       <c r="B9" s="551"/>
-      <c r="C9" s="561" t="s">
+      <c r="C9" s="596" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="561"/>
-      <c r="E9" s="561"/>
-      <c r="F9" s="561" t="s">
+      <c r="D9" s="596"/>
+      <c r="E9" s="596"/>
+      <c r="F9" s="596" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="562"/>
+      <c r="G9" s="597"/>
       <c r="H9" s="15"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="565" t="s">
+      <c r="A10" s="539" t="s">
         <v>327</v>
       </c>
-      <c r="B10" s="545"/>
-      <c r="C10" s="539" t="str">
+      <c r="B10" s="540"/>
+      <c r="C10" s="546" t="str">
         <f ca="1">Q!B48&amp;" / "&amp;ROUND(IF(Q!B76="yn",VALUE(Q!B48)/SQRT(3),VALUE(Q!B48)),3)</f>
         <v>400 / 230.94</v>
       </c>
-      <c r="D10" s="539"/>
-      <c r="E10" s="539"/>
-      <c r="F10" s="539" t="str">
+      <c r="D10" s="546"/>
+      <c r="E10" s="546"/>
+      <c r="F10" s="546" t="str">
         <f ca="1">Q!B47&amp;" / "&amp;ROUND(IF(Q!B77="YN",VALUE(Q!B47)/SQRT(3),VALUE(Q!B47)),3)</f>
         <v>33000 / 33000</v>
       </c>
-      <c r="G10" s="540"/>
+      <c r="G10" s="586"/>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="565" t="s">
+      <c r="A11" s="539" t="s">
         <v>328</v>
       </c>
-      <c r="B11" s="545"/>
-      <c r="C11" s="539" t="str">
+      <c r="B11" s="540"/>
+      <c r="C11" s="546" t="str">
         <f ca="1">Q!B50&amp;" / "&amp;ROUND(Q!B49,3)</f>
         <v>144.338 / 144.338</v>
       </c>
-      <c r="D11" s="539"/>
-      <c r="E11" s="539"/>
-      <c r="F11" s="539" t="str">
+      <c r="D11" s="546"/>
+      <c r="E11" s="546"/>
+      <c r="F11" s="546" t="str">
         <f ca="1">Q!B54&amp;" / "&amp;ROUND(VALUE(RIGHT(Q!E53,Q!C53-Q!D53)),3)</f>
         <v>1.75 / 1.01</v>
       </c>
-      <c r="G11" s="540"/>
+      <c r="G11" s="586"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="565" t="s">
+      <c r="A12" s="539" t="s">
         <v>329</v>
       </c>
-      <c r="B12" s="545"/>
-      <c r="C12" s="546" t="str">
+      <c r="B12" s="540"/>
+      <c r="C12" s="588" t="str">
         <f ca="1">IF(H12=0,Q!B76,H12)</f>
         <v>yn</v>
       </c>
-      <c r="D12" s="546"/>
-      <c r="E12" s="546"/>
-      <c r="F12" s="546" t="str">
+      <c r="D12" s="588"/>
+      <c r="E12" s="588"/>
+      <c r="F12" s="588" t="str">
         <f ca="1">IF(I12=0,Q!B77,I12)</f>
         <v>D</v>
       </c>
-      <c r="G12" s="568"/>
+      <c r="G12" s="589"/>
       <c r="H12" s="369"/>
       <c r="I12" s="369"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="565" t="s">
+      <c r="A13" s="539" t="s">
         <v>330</v>
       </c>
-      <c r="B13" s="545"/>
-      <c r="C13" s="539" t="s">
+      <c r="B13" s="540"/>
+      <c r="C13" s="546" t="s">
         <v>393</v>
       </c>
-      <c r="D13" s="539"/>
-      <c r="E13" s="539"/>
-      <c r="F13" s="539" t="s">
+      <c r="D13" s="546"/>
+      <c r="E13" s="546"/>
+      <c r="F13" s="546" t="s">
         <v>391</v>
       </c>
-      <c r="G13" s="540"/>
+      <c r="G13" s="586"/>
       <c r="H13" s="15"/>
       <c r="J13" s="2" t="s">
         <v>391</v>
@@ -28942,21 +28942,21 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="565" t="s">
+      <c r="A14" s="539" t="s">
         <v>331</v>
       </c>
-      <c r="B14" s="545"/>
-      <c r="C14" s="539">
+      <c r="B14" s="540"/>
+      <c r="C14" s="546">
         <f ca="1">ROUND(IF(P!C41=Q!B200,DDOS!C15:E15,P!C42),0)</f>
         <v>36</v>
       </c>
-      <c r="D14" s="539"/>
-      <c r="E14" s="539"/>
-      <c r="F14" s="539" t="str">
+      <c r="D14" s="546"/>
+      <c r="E14" s="546"/>
+      <c r="F14" s="546" t="str">
         <f ca="1">LEFT(P!C59,FIND("/",P!C59,1)-1)&amp;" / "&amp;N14</f>
         <v>5401 / 5144</v>
       </c>
-      <c r="G14" s="540"/>
+      <c r="G14" s="586"/>
       <c r="J14" s="2" t="s">
         <v>392</v>
       </c>
@@ -28980,21 +28980,21 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="565" t="s">
+      <c r="A15" s="539" t="s">
         <v>332</v>
       </c>
-      <c r="B15" s="545"/>
-      <c r="C15" s="539">
+      <c r="B15" s="540"/>
+      <c r="C15" s="546">
         <f ca="1">ROUND(IF(P!C41=Q!B200,Q!B168,LEFT(P!C49,FIND(":",P!C49,1)-1)),0)</f>
         <v>36</v>
       </c>
-      <c r="D15" s="539"/>
-      <c r="E15" s="539"/>
-      <c r="F15" s="539" t="str">
+      <c r="D15" s="546"/>
+      <c r="E15" s="546"/>
+      <c r="F15" s="546" t="str">
         <f ca="1">LEFT(P!C65,FIND("#",P!C65,1)-1)</f>
         <v>31</v>
       </c>
-      <c r="G15" s="540"/>
+      <c r="G15" s="586"/>
       <c r="J15" s="2" t="s">
         <v>394</v>
       </c>
@@ -29003,21 +29003,21 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="565" t="s">
+      <c r="A16" s="539" t="s">
         <v>333</v>
       </c>
-      <c r="B16" s="545"/>
-      <c r="C16" s="539">
+      <c r="B16" s="540"/>
+      <c r="C16" s="546">
         <f ca="1">IF(C14=C15,1,RIGHT(P!C49,LEN(P!C49)-FIND(":",P!C49,1)))</f>
         <v>1</v>
       </c>
-      <c r="D16" s="539"/>
-      <c r="E16" s="539"/>
-      <c r="F16" s="539" t="str">
+      <c r="D16" s="546"/>
+      <c r="E16" s="546"/>
+      <c r="F16" s="546" t="str">
         <f ca="1">RIGHT(P!C65,LEN(P!C65)-FIND("#",P!C65,1))</f>
         <v xml:space="preserve"> 178.00/ 61.00 *</v>
       </c>
-      <c r="G16" s="540"/>
+      <c r="G16" s="586"/>
       <c r="J16" s="2" t="s">
         <v>397</v>
       </c>
@@ -29026,20 +29026,20 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="565" t="s">
+      <c r="A17" s="539" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="545"/>
-      <c r="C17" s="539" t="str">
+      <c r="B17" s="540"/>
+      <c r="C17" s="546" t="str">
         <f ca="1">"(2 x 0.15 SL x "&amp;Q!C140&amp;") DDP Between Layers"</f>
         <v>(2 x 0.15 SL x 203) DDP Between Layers</v>
       </c>
-      <c r="D17" s="539"/>
-      <c r="E17" s="539"/>
-      <c r="F17" s="539" t="s">
+      <c r="D17" s="546"/>
+      <c r="E17" s="546"/>
+      <c r="F17" s="546" t="s">
         <v>976</v>
       </c>
-      <c r="G17" s="540"/>
+      <c r="G17" s="586"/>
       <c r="J17" s="2" t="s">
         <v>393</v>
       </c>
@@ -29048,248 +29048,248 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="565"/>
-      <c r="B18" s="545"/>
-      <c r="C18" s="539"/>
-      <c r="D18" s="539"/>
-      <c r="E18" s="539"/>
-      <c r="F18" s="539" t="s">
+      <c r="A18" s="539"/>
+      <c r="B18" s="540"/>
+      <c r="C18" s="546"/>
+      <c r="D18" s="546"/>
+      <c r="E18" s="546"/>
+      <c r="F18" s="546" t="s">
         <v>973</v>
       </c>
-      <c r="G18" s="540"/>
+      <c r="G18" s="586"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="565"/>
-      <c r="B19" s="545"/>
-      <c r="C19" s="539"/>
-      <c r="D19" s="539"/>
-      <c r="E19" s="539"/>
-      <c r="F19" s="539"/>
-      <c r="G19" s="540"/>
+      <c r="A19" s="539"/>
+      <c r="B19" s="540"/>
+      <c r="C19" s="546"/>
+      <c r="D19" s="546"/>
+      <c r="E19" s="546"/>
+      <c r="F19" s="546"/>
+      <c r="G19" s="586"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="555"/>
-      <c r="B20" s="557"/>
-      <c r="C20" s="541"/>
-      <c r="D20" s="542"/>
-      <c r="E20" s="543"/>
-      <c r="F20" s="541"/>
-      <c r="G20" s="566"/>
+      <c r="A20" s="574"/>
+      <c r="B20" s="584"/>
+      <c r="C20" s="562"/>
+      <c r="D20" s="563"/>
+      <c r="E20" s="564"/>
+      <c r="F20" s="562"/>
+      <c r="G20" s="565"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="553" t="s">
+      <c r="A21" s="543" t="s">
         <v>559</v>
       </c>
-      <c r="B21" s="554"/>
-      <c r="C21" s="541" t="str">
+      <c r="B21" s="545"/>
+      <c r="C21" s="562" t="str">
         <f ca="1">'Bill of Materials'!C19</f>
         <v xml:space="preserve">8 x 0.25mm </v>
       </c>
-      <c r="D21" s="542"/>
-      <c r="E21" s="543"/>
-      <c r="F21" s="541" t="str">
+      <c r="D21" s="563"/>
+      <c r="E21" s="564"/>
+      <c r="F21" s="562" t="str">
         <f ca="1">IF('Bill of Materials'!E27&gt;0,'Bill of Materials'!C27,F18)</f>
         <v>0.075 x 45 Strip</v>
       </c>
-      <c r="G21" s="566"/>
+      <c r="G21" s="565"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="555"/>
-      <c r="B22" s="557"/>
-      <c r="C22" s="541"/>
-      <c r="D22" s="542"/>
-      <c r="E22" s="543"/>
-      <c r="F22" s="541"/>
-      <c r="G22" s="566"/>
+      <c r="A22" s="574"/>
+      <c r="B22" s="584"/>
+      <c r="C22" s="562"/>
+      <c r="D22" s="563"/>
+      <c r="E22" s="564"/>
+      <c r="F22" s="562"/>
+      <c r="G22" s="565"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="565" t="s">
+      <c r="A23" s="539" t="s">
         <v>334</v>
       </c>
-      <c r="B23" s="545"/>
-      <c r="C23" s="570" t="s">
+      <c r="B23" s="540"/>
+      <c r="C23" s="587" t="s">
         <v>974</v>
       </c>
-      <c r="D23" s="539"/>
-      <c r="E23" s="539"/>
-      <c r="F23" s="539" t="s">
+      <c r="D23" s="546"/>
+      <c r="E23" s="546"/>
+      <c r="F23" s="546" t="s">
         <v>977</v>
       </c>
-      <c r="G23" s="540"/>
+      <c r="G23" s="586"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="565"/>
-      <c r="B24" s="545"/>
-      <c r="C24" s="539"/>
-      <c r="D24" s="539"/>
-      <c r="E24" s="539"/>
-      <c r="F24" s="539" t="str">
+      <c r="A24" s="539"/>
+      <c r="B24" s="540"/>
+      <c r="C24" s="546"/>
+      <c r="D24" s="546"/>
+      <c r="E24" s="546"/>
+      <c r="F24" s="546" t="str">
         <f ca="1">IF(OR(ISERROR(VLOOKUP(Q!B457,Q!B462:H470,6,FALSE)),VLOOKUP(Q!B457,Q!B462:H470,6,FALSE)=0),"-",VLOOKUP(Q!B457,Q!B462:H470,6,FALSE))</f>
         <v>-</v>
       </c>
-      <c r="G24" s="540"/>
+      <c r="G24" s="586"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="565"/>
-      <c r="B25" s="545"/>
-      <c r="C25" s="539"/>
-      <c r="D25" s="539"/>
-      <c r="E25" s="539"/>
-      <c r="F25" s="539"/>
-      <c r="G25" s="540"/>
+      <c r="A25" s="539"/>
+      <c r="B25" s="540"/>
+      <c r="C25" s="546"/>
+      <c r="D25" s="546"/>
+      <c r="E25" s="546"/>
+      <c r="F25" s="546"/>
+      <c r="G25" s="586"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="555"/>
-      <c r="B26" s="557"/>
-      <c r="C26" s="541"/>
-      <c r="D26" s="542"/>
-      <c r="E26" s="543"/>
-      <c r="F26" s="541"/>
-      <c r="G26" s="566"/>
+      <c r="A26" s="574"/>
+      <c r="B26" s="584"/>
+      <c r="C26" s="562"/>
+      <c r="D26" s="563"/>
+      <c r="E26" s="564"/>
+      <c r="F26" s="562"/>
+      <c r="G26" s="565"/>
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="565" t="s">
+      <c r="A27" s="539" t="s">
         <v>335</v>
       </c>
-      <c r="B27" s="545"/>
-      <c r="C27" s="539" t="str">
+      <c r="B27" s="540"/>
+      <c r="C27" s="546" t="str">
         <f ca="1">LEFT(Q!B208,4)&amp;" x "&amp;RIGHT(Q!B208,3)/2&amp;" x 2"</f>
         <v xml:space="preserve"> 185 x 0.12 x 2</v>
       </c>
-      <c r="D27" s="539"/>
-      <c r="E27" s="539"/>
-      <c r="F27" s="539" t="str">
+      <c r="D27" s="546"/>
+      <c r="E27" s="546"/>
+      <c r="F27" s="546" t="str">
         <f ca="1">Q!B212&amp;IF(Q!G211&gt;1," x "&amp;Q!G211,"")</f>
         <v xml:space="preserve"> 0.700</v>
       </c>
-      <c r="G27" s="540"/>
+      <c r="G27" s="586"/>
       <c r="I27" t="str">
         <f ca="1">IF(Q!G211&gt;1," x "&amp;Q!G211,"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="565" t="s">
+      <c r="A28" s="539" t="s">
         <v>336</v>
       </c>
-      <c r="B28" s="545"/>
-      <c r="C28" s="539" t="str">
+      <c r="B28" s="540"/>
+      <c r="C28" s="546" t="str">
         <f ca="1">IF(P!C41=Q!B200,C27,VALUE(LEFT(Q!B208,FIND("x",Q!B208,1)-1))+VALUE(MID(P!E49,FIND("/",P!E49,1)+1,FIND("m",P!E49,1)-FIND("/",P!E49,1)-1))&amp;" x "&amp;VALUE(RIGHT(Q!B208,LEN(Q!B208)-FIND("x",Q!B208,1)))+VALUE(MID(P!E49,FIND("/",P!E49,1)+1,FIND("m",P!E49,1)-FIND("/",P!E49,1)-1)))</f>
         <v xml:space="preserve"> 185 x 0.12 x 2</v>
       </c>
-      <c r="D28" s="539"/>
-      <c r="E28" s="539"/>
-      <c r="F28" s="539" t="str">
+      <c r="D28" s="546"/>
+      <c r="E28" s="546"/>
+      <c r="F28" s="546" t="str">
         <f ca="1">LEFT(F27,5)+VALUE(MID(P!E62,FIND("/",P!E62,1)+1,FIND("m",P!E62,1)-FIND("/",P!E62,1)-1))&amp;IF(Q!G211&gt;1," x "&amp;Q!G211,"")</f>
         <v>0.775</v>
       </c>
-      <c r="G28" s="540"/>
+      <c r="G28" s="586"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="553" t="s">
+      <c r="A29" s="543" t="s">
         <v>337</v>
       </c>
-      <c r="B29" s="554"/>
-      <c r="C29" s="539">
+      <c r="B29" s="545"/>
+      <c r="C29" s="546">
         <f ca="1">ROUND(VALUE(Q!B49)/VALUE(DDOS!C30:E30),3)</f>
         <v>44.398000000000003</v>
       </c>
-      <c r="D29" s="539"/>
-      <c r="E29" s="539"/>
-      <c r="F29" s="539">
+      <c r="D29" s="546"/>
+      <c r="E29" s="546"/>
+      <c r="F29" s="546">
         <f ca="1">ROUND(LEFT(P!H59,FIND("m",P!H59,1)-1),3)</f>
         <v>0.38500000000000001</v>
       </c>
-      <c r="G29" s="540"/>
+      <c r="G29" s="586"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="565" t="s">
+      <c r="A30" s="539" t="s">
         <v>338</v>
       </c>
-      <c r="B30" s="545"/>
-      <c r="C30" s="539" t="str">
+      <c r="B30" s="540"/>
+      <c r="C30" s="546" t="str">
         <f ca="1">LEFT(P!C43,FIND("A",P!C43,1)-1)</f>
         <v xml:space="preserve">3.251 </v>
       </c>
-      <c r="D30" s="539"/>
-      <c r="E30" s="539"/>
-      <c r="F30" s="539" t="str">
+      <c r="D30" s="546"/>
+      <c r="E30" s="546"/>
+      <c r="F30" s="546" t="str">
         <f ca="1">LEFT(P!C64,FIND("A",P!C64,1)-1)</f>
         <v xml:space="preserve">2.625 </v>
       </c>
-      <c r="G30" s="540"/>
+      <c r="G30" s="586"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="565" t="s">
+      <c r="A31" s="539" t="s">
         <v>339</v>
       </c>
-      <c r="B31" s="545"/>
-      <c r="C31" s="539" t="str">
+      <c r="B31" s="540"/>
+      <c r="C31" s="546" t="str">
         <f ca="1">LEFT(P!E48,FIND("m",P!E48,1)-1)</f>
         <v xml:space="preserve">25.000 /  3.000 </v>
       </c>
-      <c r="D31" s="539"/>
-      <c r="E31" s="539"/>
-      <c r="F31" s="539" t="str">
+      <c r="D31" s="546"/>
+      <c r="E31" s="546"/>
+      <c r="F31" s="546" t="str">
         <f ca="1">IF(ISERROR(Q!M47),0,IF(Q!M47&gt;0,DDOS!H31,IF(Q!M48&gt;0,DDOS!H33,IF(Q!M49&gt;0,DDOS!H34,DDOS!F27))))</f>
         <v>HD Copper - 3 mm dia paper covered</v>
       </c>
-      <c r="G31" s="540"/>
+      <c r="G31" s="586"/>
       <c r="H31" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="565" t="s">
+      <c r="A32" s="539" t="s">
         <v>537</v>
       </c>
-      <c r="B32" s="545"/>
-      <c r="C32" s="539" t="str">
+      <c r="B32" s="540"/>
+      <c r="C32" s="546" t="str">
         <f ca="1">LEFT(P!E49,FIND("m",P!E49,1)-1)</f>
         <v xml:space="preserve">25.000 /  3.000 </v>
       </c>
-      <c r="D32" s="539"/>
-      <c r="E32" s="539"/>
-      <c r="F32" s="539" t="str">
+      <c r="D32" s="546"/>
+      <c r="E32" s="546"/>
+      <c r="F32" s="546" t="str">
         <f ca="1">IF(Q!N47&gt;0,DDOS!H31,IF(Q!N48&gt;0,DDOS!H33,IF(Q!N49&gt;0,DDOS!H34,DDOS!F27)))</f>
         <v>HD Copper - 3 mm dia paper covered</v>
       </c>
-      <c r="G32" s="540"/>
+      <c r="G32" s="586"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="565" t="s">
+      <c r="A33" s="539" t="s">
         <v>340</v>
       </c>
-      <c r="B33" s="545"/>
-      <c r="C33" s="539" t="str">
+      <c r="B33" s="540"/>
+      <c r="C33" s="546" t="str">
         <f ca="1">P!E45</f>
         <v>15.24/ 15.24/ 19.74</v>
       </c>
-      <c r="D33" s="539"/>
-      <c r="E33" s="539"/>
-      <c r="F33" s="539" t="str">
+      <c r="D33" s="546"/>
+      <c r="E33" s="546"/>
+      <c r="F33" s="546" t="str">
         <f ca="1">P!E60</f>
         <v>39.35/ 39.35/ 39.35</v>
       </c>
-      <c r="G33" s="540"/>
+      <c r="G33" s="586"/>
       <c r="H33" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="565" t="s">
+      <c r="A34" s="539" t="s">
         <v>981</v>
       </c>
-      <c r="B34" s="545"/>
-      <c r="C34" s="539" t="s">
+      <c r="B34" s="540"/>
+      <c r="C34" s="546" t="s">
         <v>975</v>
       </c>
-      <c r="D34" s="539"/>
-      <c r="E34" s="539"/>
-      <c r="F34" s="539" t="s">
+      <c r="D34" s="546"/>
+      <c r="E34" s="546"/>
+      <c r="F34" s="546" t="s">
         <v>978</v>
       </c>
-      <c r="G34" s="540"/>
+      <c r="G34" s="586"/>
       <c r="H34" t="s">
         <v>404</v>
       </c>
@@ -29303,21 +29303,21 @@
       </c>
     </row>
     <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="565" t="s">
+      <c r="A35" s="539" t="s">
         <v>341</v>
       </c>
-      <c r="B35" s="545"/>
-      <c r="C35" s="541" t="str">
+      <c r="B35" s="540"/>
+      <c r="C35" s="562" t="str">
         <f ca="1">TRIM(IF(P!C41=Q!B200,LEFT(DDOS!C27:E27,FIND("x",DDOS!C27:E27,1)-1),RIGHT(P!H41,LEN(P!H41)-FIND("x",P!H41,1))))&amp;" / "&amp;TRIM(LEFT(P!E41,FIND("m",P!E41,1)-1))</f>
         <v>185 / 205.000</v>
       </c>
-      <c r="D35" s="542"/>
-      <c r="E35" s="543"/>
-      <c r="F35" s="539" t="str">
+      <c r="D35" s="563"/>
+      <c r="E35" s="564"/>
+      <c r="F35" s="546" t="str">
         <f ca="1">RIGHT(P!H57,LEN(P!H57)-FIND("/",P!H57,1))&amp;" / "&amp;LEFT(P!E41,FIND("m",P!E41,1)-1)</f>
         <v xml:space="preserve">  138.225 / 205.000 </v>
       </c>
-      <c r="G35" s="540"/>
+      <c r="G35" s="586"/>
       <c r="P35">
         <f ca="1">VALUE(MID(P!E42,FIND("x",P!E42,1)+1,LEN(P!E42)-FIND("x",P!E42,1)-2))</f>
         <v>205.49</v>
@@ -29328,21 +29328,21 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="565" t="s">
+      <c r="A36" s="539" t="s">
         <v>342</v>
       </c>
-      <c r="B36" s="545"/>
-      <c r="C36" s="539">
+      <c r="B36" s="540"/>
+      <c r="C36" s="546">
         <f ca="1">VALUE(C37)/(2*PI())</f>
         <v>96.634265952049191</v>
       </c>
-      <c r="D36" s="539"/>
-      <c r="E36" s="539"/>
-      <c r="F36" s="539">
+      <c r="D36" s="546"/>
+      <c r="E36" s="546"/>
+      <c r="F36" s="546">
         <f ca="1">VALUE(F37)/(2*PI())</f>
         <v>139.49930762004627</v>
       </c>
-      <c r="G36" s="540"/>
+      <c r="G36" s="586"/>
       <c r="P36">
         <f ca="1">VALUE(LEFT(P!E43,FIND("x",P!E43,1)-1))</f>
         <v>163.49</v>
@@ -29353,21 +29353,21 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="565" t="s">
+      <c r="A37" s="539" t="s">
         <v>343</v>
       </c>
-      <c r="B37" s="545"/>
-      <c r="C37" s="539" t="str">
+      <c r="B37" s="540"/>
+      <c r="C37" s="546" t="str">
         <f ca="1">LEFT(P!C48,FIND("m",P!C48,1)-1)</f>
         <v xml:space="preserve">607.171 </v>
       </c>
-      <c r="D37" s="539"/>
-      <c r="E37" s="539"/>
-      <c r="F37" s="539" t="str">
+      <c r="D37" s="546"/>
+      <c r="E37" s="546"/>
+      <c r="F37" s="546" t="str">
         <f ca="1">LEFT(P!C62,FIND("m",P!C62,1)-1)</f>
         <v xml:space="preserve">876.5 </v>
       </c>
-      <c r="G37" s="540"/>
+      <c r="G37" s="586"/>
       <c r="P37">
         <f ca="1">VALUE(MID(P!E43,FIND("x",P!E43,1)+1,LEN(P!E43)-FIND("x",P!E43,1)-2))</f>
         <v>240.48</v>
@@ -29378,104 +29378,104 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="565" t="s">
+      <c r="A38" s="539" t="s">
         <v>344</v>
       </c>
-      <c r="B38" s="545"/>
-      <c r="C38" s="539" t="str">
+      <c r="B38" s="540"/>
+      <c r="C38" s="546" t="str">
         <f ca="1">LEFT(P!H48,FIND("k",P!H48,1)-1)</f>
         <v xml:space="preserve">30.87 </v>
       </c>
-      <c r="D38" s="539"/>
-      <c r="E38" s="539"/>
-      <c r="F38" s="539" t="str">
+      <c r="D38" s="546"/>
+      <c r="E38" s="546"/>
+      <c r="F38" s="546" t="str">
         <f ca="1">LEFT(P!H64,FIND("k",P!H64,1)-1)</f>
         <v xml:space="preserve">57.10 </v>
       </c>
-      <c r="G38" s="540"/>
+      <c r="G38" s="586"/>
       <c r="P38">
         <f ca="1">IF(P!C41=Q!B200,1+VALUE(MID(P!E48,FIND("/",P!E48,1)+1,FIND("m",P!E48,1)-FIND("/",P!E48,1)-1)),0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="565" t="s">
+      <c r="A39" s="539" t="s">
         <v>345</v>
       </c>
-      <c r="B39" s="545"/>
-      <c r="C39" s="539" t="str">
+      <c r="B39" s="540"/>
+      <c r="C39" s="546" t="str">
         <f ca="1">LEFT(P!H51,FIND("@",P!H51,1)-1)&amp;" @ 75 C"</f>
         <v>0.010324  @ 75 C</v>
       </c>
-      <c r="D39" s="539"/>
-      <c r="E39" s="539"/>
-      <c r="F39" s="539" t="str">
+      <c r="D39" s="546"/>
+      <c r="E39" s="546"/>
+      <c r="F39" s="546" t="str">
         <f ca="1">LEFT(P!H66,FIND("@",P!H66,1)-1)&amp;" @ 75 C"</f>
         <v>245.6654  @ 75 C</v>
       </c>
-      <c r="G39" s="540"/>
+      <c r="G39" s="586"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="565" t="s">
+      <c r="A40" s="539" t="s">
         <v>971</v>
       </c>
-      <c r="B40" s="545"/>
-      <c r="C40" s="539">
+      <c r="B40" s="540"/>
+      <c r="C40" s="546">
         <f ca="1">VALUE(LEFT(P!E114,FIND("W",P!E114,1)-1))+VALUE(LEFT(P!H115,FIND("/",P!H115,1)-1))+VALUE(RIGHT(P!H115,LEN(P!H115)-FIND("/",P!H115,1)-1))</f>
         <v>715</v>
       </c>
-      <c r="D40" s="539"/>
-      <c r="E40" s="539"/>
-      <c r="F40" s="539" t="str">
+      <c r="D40" s="546"/>
+      <c r="E40" s="546"/>
+      <c r="F40" s="546" t="str">
         <f ca="1">LEFT(P!C114,FIND("W",P!C114,1)-1)</f>
         <v xml:space="preserve">752  </v>
       </c>
-      <c r="G40" s="540"/>
+      <c r="G40" s="586"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="569"/>
-      <c r="B41" s="539"/>
-      <c r="C41" s="539"/>
-      <c r="D41" s="539"/>
-      <c r="E41" s="539"/>
-      <c r="F41" s="539"/>
-      <c r="G41" s="540"/>
+      <c r="A41" s="590"/>
+      <c r="B41" s="546"/>
+      <c r="C41" s="546"/>
+      <c r="D41" s="546"/>
+      <c r="E41" s="546"/>
+      <c r="F41" s="546"/>
+      <c r="G41" s="586"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="550" t="s">
         <v>346</v>
       </c>
       <c r="B42" s="551"/>
-      <c r="C42" s="595" t="str">
+      <c r="C42" s="556" t="str">
         <f ca="1">IF('Bill of Materials'!L59=0,Q!B330,'Bill of Materials'!L59)&amp;" x "&amp;Q!F330</f>
         <v>EN 250 x 4</v>
       </c>
-      <c r="D42" s="595"/>
-      <c r="E42" s="595"/>
-      <c r="F42" s="595" t="str">
+      <c r="D42" s="556"/>
+      <c r="E42" s="556"/>
+      <c r="F42" s="556" t="str">
         <f ca="1">IF('Bill of Materials'!L56=0,Q!B311,'Bill of Materials'!L56)&amp;" x "&amp;Q!F311</f>
         <v>30 NF 250 CD = 900 mm x 3</v>
       </c>
-      <c r="G42" s="596"/>
+      <c r="G42" s="558"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="597"/>
-      <c r="B43" s="598"/>
-      <c r="C43" s="598"/>
-      <c r="D43" s="598"/>
-      <c r="E43" s="598"/>
-      <c r="F43" s="598"/>
-      <c r="G43" s="599"/>
+      <c r="A43" s="559"/>
+      <c r="B43" s="560"/>
+      <c r="C43" s="560"/>
+      <c r="D43" s="560"/>
+      <c r="E43" s="560"/>
+      <c r="F43" s="560"/>
+      <c r="G43" s="561"/>
     </row>
     <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="226" t="s">
         <v>347</v>
       </c>
-      <c r="B44" s="567" t="str">
+      <c r="B44" s="544" t="str">
         <f ca="1">"CORE / LV : "&amp;P!C72&amp;" mm"</f>
         <v>CORE / LV : 1.50x  1.50x  7.00 mm</v>
       </c>
-      <c r="C44" s="567"/>
+      <c r="C44" s="544"/>
       <c r="D44" s="213" t="s">
         <v>348</v>
       </c>
@@ -29496,27 +29496,27 @@
       <c r="A45" s="252" t="s">
         <v>560</v>
       </c>
-      <c r="B45" s="567" t="s">
+      <c r="B45" s="544" t="s">
         <v>980</v>
       </c>
-      <c r="C45" s="567"/>
+      <c r="C45" s="544"/>
       <c r="D45" s="253" t="s">
         <v>561</v>
       </c>
-      <c r="E45" s="567" t="s">
+      <c r="E45" s="544" t="s">
         <v>979</v>
       </c>
-      <c r="F45" s="567"/>
-      <c r="G45" s="575"/>
+      <c r="F45" s="544"/>
+      <c r="G45" s="557"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="592"/>
-      <c r="B46" s="593"/>
-      <c r="C46" s="593"/>
-      <c r="D46" s="593"/>
-      <c r="E46" s="593"/>
-      <c r="F46" s="593"/>
-      <c r="G46" s="594"/>
+      <c r="A46" s="547"/>
+      <c r="B46" s="548"/>
+      <c r="C46" s="548"/>
+      <c r="D46" s="548"/>
+      <c r="E46" s="548"/>
+      <c r="F46" s="548"/>
+      <c r="G46" s="549"/>
       <c r="J46" s="2" t="s">
         <v>56</v>
       </c>
@@ -29883,23 +29883,23 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="547"/>
-      <c r="B60" s="548"/>
-      <c r="C60" s="548"/>
-      <c r="D60" s="548"/>
-      <c r="E60" s="548"/>
-      <c r="F60" s="548"/>
-      <c r="G60" s="549"/>
+      <c r="A60" s="552"/>
+      <c r="B60" s="553"/>
+      <c r="C60" s="553"/>
+      <c r="D60" s="553"/>
+      <c r="E60" s="553"/>
+      <c r="F60" s="553"/>
+      <c r="G60" s="554"/>
     </row>
     <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="230" t="s">
         <v>425</v>
       </c>
-      <c r="B61" s="556" t="str">
+      <c r="B61" s="555" t="str">
         <f ca="1">"LENGTH (mm) : "&amp;Q!B94</f>
         <v>LENGTH (mm) : 1035</v>
       </c>
-      <c r="C61" s="556"/>
+      <c r="C61" s="555"/>
       <c r="D61" s="212"/>
       <c r="E61" s="212" t="s">
         <v>416</v>
@@ -29914,11 +29914,11 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="555"/>
-      <c r="B62" s="556"/>
-      <c r="C62" s="556"/>
-      <c r="D62" s="556"/>
-      <c r="E62" s="557"/>
+      <c r="A62" s="574"/>
+      <c r="B62" s="555"/>
+      <c r="C62" s="555"/>
+      <c r="D62" s="555"/>
+      <c r="E62" s="584"/>
       <c r="F62" s="389" t="str">
         <f ca="1">"CORRUG. L.S DEPTH (mm) :  "&amp;IF(Q!B278="NO",VALUE(Q!B299)," ")</f>
         <v>CORRUG. L.S DEPTH (mm) :  210</v>
@@ -29929,16 +29929,16 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="553" t="s">
+      <c r="A63" s="543" t="s">
         <v>414</v>
       </c>
-      <c r="B63" s="567"/>
+      <c r="B63" s="544"/>
       <c r="C63" s="344" t="str">
         <f ca="1">Q!B301</f>
         <v>600</v>
       </c>
-      <c r="D63" s="567"/>
-      <c r="E63" s="554"/>
+      <c r="D63" s="544"/>
+      <c r="E63" s="545"/>
       <c r="F63" s="389" t="str">
         <f ca="1">"CORRUG. S.S DEPTH (mm)  :  "&amp;IF(Q!B278="NO",VALUE(Q!B300)," ")</f>
         <v>CORRUG. S.S DEPTH (mm)  :  50</v>
@@ -29949,18 +29949,18 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="553" t="s">
+      <c r="A64" s="543" t="s">
         <v>781</v>
       </c>
-      <c r="B64" s="567"/>
+      <c r="B64" s="544"/>
       <c r="C64" s="391" t="str">
         <f ca="1">IF(Q!B280=0,"",Q!B280)</f>
         <v/>
       </c>
-      <c r="D64" s="591" t="s">
+      <c r="D64" s="541" t="s">
         <v>782</v>
       </c>
-      <c r="E64" s="556"/>
+      <c r="E64" s="555"/>
       <c r="F64" s="197" t="str">
         <f ca="1">IF(Q!B278="NO"," ",Q!B282)</f>
         <v xml:space="preserve"> </v>
@@ -29968,32 +29968,32 @@
       <c r="G64" s="227"/>
     </row>
     <row r="65" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="553" t="s">
+      <c r="A65" s="543" t="s">
         <v>780</v>
       </c>
-      <c r="B65" s="567"/>
+      <c r="B65" s="544"/>
       <c r="C65" s="344" t="str">
         <f ca="1">IF(Q!B278="NO"," ",Q!B280)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D65" s="567" t="s">
+      <c r="D65" s="544" t="s">
         <v>415</v>
       </c>
-      <c r="E65" s="554"/>
-      <c r="F65" s="591"/>
-      <c r="G65" s="581"/>
+      <c r="E65" s="545"/>
+      <c r="F65" s="541"/>
+      <c r="G65" s="542"/>
       <c r="H65" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="555"/>
-      <c r="B66" s="556"/>
-      <c r="C66" s="580"/>
-      <c r="D66" s="556"/>
-      <c r="E66" s="556"/>
-      <c r="F66" s="556"/>
-      <c r="G66" s="581"/>
+      <c r="A66" s="574"/>
+      <c r="B66" s="555"/>
+      <c r="C66" s="575"/>
+      <c r="D66" s="555"/>
+      <c r="E66" s="555"/>
+      <c r="F66" s="555"/>
+      <c r="G66" s="542"/>
       <c r="H66" t="s">
         <v>423</v>
       </c>
@@ -30007,7 +30007,7 @@
       <c r="D67" s="551"/>
       <c r="E67" s="551"/>
       <c r="F67" s="551"/>
-      <c r="G67" s="590"/>
+      <c r="G67" s="585"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="224" t="s">
@@ -30050,11 +30050,11 @@
         <f ca="1">Q!B60</f>
         <v>50</v>
       </c>
-      <c r="E69" s="574" t="str">
+      <c r="E69" s="569" t="str">
         <f ca="1">"VOLTAGE RATIO : "&amp;ROUND((VALUE(RIGHT(F10,LEN(F10)-FIND("/",F10,1)))/VALUE(RIGHT(C10,LEN(C10)-FIND("/",C10,1)))),3)</f>
         <v>VOLTAGE RATIO : 142.894</v>
       </c>
-      <c r="F69" s="554"/>
+      <c r="F69" s="545"/>
       <c r="G69" s="232" t="str">
         <f>"TYPE OF UNIT :"&amp;" "&amp;H69</f>
         <v>TYPE OF UNIT : Hermetically sealed</v>
@@ -30064,10 +30064,10 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="582" t="s">
+      <c r="A70" s="576" t="s">
         <v>370</v>
       </c>
-      <c r="B70" s="589"/>
+      <c r="B70" s="583"/>
       <c r="C70" s="194" t="s">
         <v>371</v>
       </c>
@@ -30075,16 +30075,16 @@
         <f ca="1">Q!B63</f>
         <v>2</v>
       </c>
-      <c r="E70" s="574" t="str">
+      <c r="E70" s="569" t="str">
         <f ca="1">"IN STEPS OF :              "&amp;Q!B65&amp;" %"</f>
         <v>IN STEPS OF :              2.5 %</v>
       </c>
-      <c r="F70" s="567"/>
-      <c r="G70" s="575"/>
+      <c r="F70" s="544"/>
+      <c r="G70" s="557"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="555"/>
-      <c r="B71" s="557"/>
+      <c r="A71" s="574"/>
+      <c r="B71" s="584"/>
       <c r="C71" s="194" t="s">
         <v>372</v>
       </c>
@@ -30092,12 +30092,12 @@
         <f ca="1">Q!C64</f>
         <v>2</v>
       </c>
-      <c r="E71" s="574" t="str">
+      <c r="E71" s="569" t="str">
         <f ca="1">"TAP CHANGER TYPE :    "&amp;IF('Bill of Materials'!L62=0,Q!B348,'Bill of Materials'!L62)</f>
         <v>TAP CHANGER TYPE :    HR 7A3.335 (30kV 30A 100mm 5 Pos)</v>
       </c>
-      <c r="F71" s="567"/>
-      <c r="G71" s="575"/>
+      <c r="F71" s="544"/>
+      <c r="G71" s="557"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="247"/>
@@ -30109,18 +30109,18 @@
       <c r="G72" s="251"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="582" t="s">
+      <c r="A73" s="576" t="s">
         <v>970</v>
       </c>
-      <c r="B73" s="583"/>
-      <c r="C73" s="567" t="str">
+      <c r="B73" s="577"/>
+      <c r="C73" s="544" t="str">
         <f>""&amp;IF(Techspecs!C61="Y","ISD","")&amp;IF(Techspecs!C63="Y"," / OLI","")&amp;IF(Techspecs!C66="Y"," / WTI","")</f>
         <v xml:space="preserve"> / OLI / WTI</v>
       </c>
-      <c r="D73" s="567"/>
-      <c r="E73" s="567"/>
-      <c r="F73" s="567"/>
-      <c r="G73" s="575"/>
+      <c r="D73" s="544"/>
+      <c r="E73" s="544"/>
+      <c r="F73" s="544"/>
+      <c r="G73" s="557"/>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="247"/>
@@ -30132,35 +30132,35 @@
       <c r="G74" s="251"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="582" t="s">
+      <c r="A75" s="576" t="s">
         <v>401</v>
       </c>
-      <c r="B75" s="583"/>
-      <c r="C75" s="583"/>
-      <c r="D75" s="583"/>
-      <c r="E75" s="583"/>
-      <c r="F75" s="583"/>
-      <c r="G75" s="584"/>
+      <c r="B75" s="577"/>
+      <c r="C75" s="577"/>
+      <c r="D75" s="577"/>
+      <c r="E75" s="577"/>
+      <c r="F75" s="577"/>
+      <c r="G75" s="578"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="585"/>
-      <c r="B76" s="586"/>
-      <c r="C76" s="586"/>
-      <c r="D76" s="586"/>
-      <c r="E76" s="586"/>
-      <c r="F76" s="587"/>
-      <c r="G76" s="588"/>
+      <c r="A76" s="579"/>
+      <c r="B76" s="580"/>
+      <c r="C76" s="580"/>
+      <c r="D76" s="580"/>
+      <c r="E76" s="580"/>
+      <c r="F76" s="581"/>
+      <c r="G76" s="582"/>
     </row>
     <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="233" t="s">
         <v>421</v>
       </c>
-      <c r="B77" s="576" t="str">
+      <c r="B77" s="570" t="str">
         <f>":    "&amp;Techspecs!C7</f>
         <v xml:space="preserve">:    STI Holdings – Tanzania project </v>
       </c>
-      <c r="C77" s="576"/>
-      <c r="D77" s="577"/>
+      <c r="C77" s="570"/>
+      <c r="D77" s="571"/>
       <c r="E77" s="217" t="s">
         <v>417</v>
       </c>
@@ -30175,12 +30175,12 @@
       <c r="A78" s="226" t="s">
         <v>420</v>
       </c>
-      <c r="B78" s="578" t="str">
+      <c r="B78" s="572" t="str">
         <f>":    "&amp;Techspecs!F9</f>
         <v>:    500 11 400</v>
       </c>
-      <c r="C78" s="578"/>
-      <c r="D78" s="579"/>
+      <c r="C78" s="572"/>
+      <c r="D78" s="573"/>
       <c r="E78" s="217" t="s">
         <v>972</v>
       </c>
@@ -30212,13 +30212,13 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="571"/>
-      <c r="B80" s="572"/>
-      <c r="C80" s="572"/>
-      <c r="D80" s="572"/>
-      <c r="E80" s="572"/>
-      <c r="F80" s="572"/>
-      <c r="G80" s="573"/>
+      <c r="A80" s="566"/>
+      <c r="B80" s="567"/>
+      <c r="C80" s="567"/>
+      <c r="D80" s="567"/>
+      <c r="E80" s="567"/>
+      <c r="F80" s="567"/>
+      <c r="G80" s="568"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
@@ -30279,6 +30279,124 @@
     </row>
   </sheetData>
   <mergeCells count="142">
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C37:E37"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="F65:G65"/>
@@ -30303,124 +30421,6 @@
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C36:E36"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:G13" xr:uid="{00000000-0002-0000-0500-000000000000}">
